--- a/data/Torres del Paine.xlsx
+++ b/data/Torres del Paine.xlsx
@@ -5575,7 +5575,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Armando Plaza Carrillo</t>
+          <t>IRENE DEL TRANSITO GARAY BUSTAMANTE</t>
         </is>
       </c>
       <c r="F109" t="n">

--- a/data/Torres del Paine.xlsx
+++ b/data/Torres del Paine.xlsx
@@ -5575,7 +5575,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>IRENE DEL TRANSITO GARAY BUSTAMANTE</t>
+          <t>GALA INVERSIONES LIMITADA</t>
         </is>
       </c>
       <c r="F109" t="n">

--- a/data/Torres del Paine.xlsx
+++ b/data/Torres del Paine.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Extracción de Áridos para Mejoramiento de Ruta 9</t>
+          <t>Regularización empréstito proyecto vial ruta 9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,7 +434,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/10/2021</t>
+          <t>22/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153366471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157150759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Estancia Perales, Fiordo Azul.</t>
+          <t>Extracción de Áridos para Mejoramiento de Ruta 9</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hotelera Fiordo Azul Ltda.</t>
+          <t>Ingeniería Civil Vicente S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>700</v>
+        <v>1191</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12/01/2021</t>
+          <t>06/10/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149417862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153366471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bodega de Acopio de Residuos Reciclables y Valorizables Las Torres de la Patagonia</t>
+          <t>Estancia Perales, Fiordo Azul.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Las Torres de la Patagonia S.A.</t>
+          <t>Hotelera Fiordo Azul Ltda.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18/01/2019</t>
+          <t>12/01/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142342980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149417862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito Cárdenas y Hernández</t>
+          <t>Bodega de Acopio de Residuos Reciclables y Valorizables Las Torres de la Patagonia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ingeniería Civil Vicente S.A.</t>
+          <t>Las Torres de la Patagonia S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>29/11/2018</t>
+          <t>18/01/2019</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141954754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142342980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Italiano del Parque Nacional Torres Del Paine.</t>
+          <t>Extracción de Áridos Empréstito Cárdenas y Hernández</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
+          <t>Ingeniería Civil Vicente S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>652</v>
+        <v>850</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>13/08/2018</t>
+          <t>29/11/2018</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141157996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141954754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Paso del Parque Nacional Torres Del Paine.</t>
+          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Italiano del Parque Nacional Torres Del Paine.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,11 +683,11 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>491</v>
+        <v>652</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>09/08/2018</t>
+          <t>13/08/2018</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141158342&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141157996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>16/11/2017</t>
+          <t>09/08/2018</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133482925&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141158342&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Italiano del Parque Nacional Torres del Paine</t>
+          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Paso del Parque Nacional Torres Del Paine.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>652</v>
+        <v>491</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133474911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133482925&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Modificación RCA Ampliación Hotel Salto Chico</t>
+          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Italiano del Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>EXPLORA CHILE S.A.</t>
+          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>359</v>
+        <v>652</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>16/11/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132773483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133474911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Paso del Parque Nacional Torres Del Paine</t>
+          <t>Modificación RCA Ampliación Hotel Salto Chico</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
+          <t>EXPLORA CHILE S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>491</v>
+        <v>359</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>06/10/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132784702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132773483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Italiano del Parque Nacional Torres Del Paine</t>
+          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Paso del Parque Nacional Torres Del Paine</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>652</v>
+        <v>491</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132786902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132784702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Proyecto Servicio de Albergue y Área de Acampar Sectores Central y Serón estancia Cerro Paine</t>
+          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Italiano del Parque Nacional Torres Del Paine</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Fantástico Sur Ltda.</t>
+          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4800</v>
+        <v>652</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08/08/2017</t>
+          <t>06/10/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132600309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132786902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Modificación Refugios Chileno y Los Cuernos estancia Cerro Paine</t>
+          <t>Proyecto Servicio de Albergue y Área de Acampar Sectores Central y Serón estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1019,11 +1019,11 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1200</v>
+        <v>4800</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>04/08/2017</t>
+          <t>08/08/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132600284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132600309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Servicio de Albergue y Área de Acampar Sector Francés estancia Cerro Paine</t>
+          <t>Modificación Refugios Chileno y Los Cuernos estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1067,11 +1067,11 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4600</v>
+        <v>1200</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>03/08/2017</t>
+          <t>04/08/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132600257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132600284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Modificación Lodge y Área de Acampar Lago Grey, Torres del Paine</t>
+          <t>Servicio de Albergue y Área de Acampar Sector Francés estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Vértice S.A.</t>
+          <t>Fantástico Sur Ltda.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>150</v>
+        <v>4600</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>14/07/2017</t>
+          <t>03/08/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132535023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132600257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modificación Lodge y Área de Acampar Paine Grande, Torres del Paine</t>
+          <t>Modificación Lodge y Área de Acampar Lago Grey, Torres del Paine</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1163,11 +1163,11 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>12/07/2017</t>
+          <t>14/07/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132535195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132535023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Modificación Hotel Las Torres Patagonia</t>
+          <t>Modificación Lodge y Área de Acampar Paine Grande, Torres del Paine</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Las Torres de la Patagonia S.A.</t>
+          <t>Vértice S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4000</v>
+        <v>80</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10/07/2017</t>
+          <t>12/07/2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132520884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132535195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Servicio de Albergue y Área de Acampar Sector Francés estancia Cerro Paine</t>
+          <t>Modificación Hotel Las Torres Patagonia</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Fantástico Sur Ltda.</t>
+          <t>Las Torres de la Patagonia S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>07/07/2017</t>
+          <t>10/07/2017</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132523851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132520884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>07/06/2017</t>
+          <t>07/07/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132448738&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132523851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Modificación Refugios Chileno y Los Cuernos estancia Cerro Paine</t>
+          <t>Servicio de Albergue y Área de Acampar Sector Francés estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1355,11 +1355,11 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1200</v>
+        <v>4600</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>06/06/2017</t>
+          <t>07/06/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132358488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132448738&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Proyecto Modificación Refugios Chileno y Los Cuernos estancia Cerro Paine</t>
+          <t>Modificación Refugios Chileno y Los Cuernos estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>11/04/2017</t>
+          <t>06/06/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132310219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132358488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Servicio de Albergue y Área de Acampar Sector Francés estancia Cerro Paine</t>
+          <t>Proyecto Modificación Refugios Chileno y Los Cuernos estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1451,21 +1451,21 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4600</v>
+        <v>1200</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>03/04/2017</t>
+          <t>11/04/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132275199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132310219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>13/02/2017</t>
+          <t>03/04/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132164725&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132275199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Infraestructura y servicios de apoyo a caminantes en estancia Cerro Paine</t>
+          <t>Servicio de Albergue y Área de Acampar Sector Francés estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,21 +1547,21 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>800</v>
+        <v>4600</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>16/12/2016</t>
+          <t>13/02/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131998147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132164725&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Normalización navegación embarcaciones de apoyo en Parque Nacional Torres del Paine</t>
+          <t>Infraestructura y servicios de apoyo a caminantes en estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Vértice S.A.</t>
+          <t>Fantástico Sur Ltda.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>45</v>
+        <v>800</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>14/10/2016</t>
+          <t>16/12/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131811694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131998147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Navegación de Apoyo en el Lago Grey</t>
+          <t>Normalización navegación embarcaciones de apoyo en Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Turismo Lago Grey S.A.</t>
+          <t>Vértice S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>23/09/2016</t>
+          <t>14/10/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131814983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131811694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS LAGUNA AMARGA</t>
+          <t>Navegación de Apoyo en el Lago Grey</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Turismo Lago Grey S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>15/03/2016</t>
+          <t>23/09/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131245434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131814983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Navegación embarcación de apoyo en Lago Nordensjköld</t>
+          <t>EXTRACCIÓN DE ÁRIDOS LAGUNA AMARGA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Fantástico Sur Ltda.</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>28/01/2016</t>
+          <t>15/03/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131033511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131245434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Reutilización de Lodos de Piscicultura</t>
+          <t>Navegación embarcación de apoyo en Lago Nordensjköld</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Fantástico Sur Ltda.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>18/11/2015</t>
+          <t>28/01/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130923324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131033511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Navegación embarcaciones de apoyo a en Lago Nordensjköld</t>
+          <t>Reutilización de Lodos de Piscicultura</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Fantástico Sur Ltda.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>13/08/2015</t>
+          <t>18/11/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130694059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130923324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Reutilización de Lodos de Piscicultura</t>
+          <t>Navegación embarcaciones de apoyo a en Lago Nordensjköld</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Fantástico Sur Ltda.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>18/06/2015</t>
+          <t>13/08/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130554144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130694059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte y Reemplazo de Embarcación Navegación Turística Lago Grey</t>
+          <t>Reutilización de Lodos de Piscicultura</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Turismo Lago Grey S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1400</v>
+        <v>90</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18/06/2014</t>
+          <t>18/06/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129551839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130554144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Kayak y Floating en Río Paine</t>
+          <t>Transporte y Reemplazo de Embarcación Navegación Turística Lago Grey</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Inmobiliaria Kusanovic Ltda</t>
+          <t>Turismo Lago Grey S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>201</v>
+        <v>1400</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>18/06/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128718570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129551839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Construcción Puente Laguna Amarga y Puente Torres del Paine</t>
+          <t>Kayak y Floating en Río Paine</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Última Esperanza</t>
+          <t>Inmobiliaria Kusanovic Ltda</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>12500</v>
+        <v>201</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>09/12/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128900386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128718570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cafetería Lago Grey</t>
+          <t>Construcción Puente Laguna Amarga y Puente Torres del Paine</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Hielos Patagónicos S.A.</t>
+          <t>Gobernación Provincial de Última Esperanza</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1200</v>
+        <v>12500</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10/09/2013</t>
+          <t>09/12/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1482397649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128900386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Construcción Guardería y Centro de Información Pehoe, Sector Paine Grande, Parque Nacional Torres del Paine</t>
+          <t>Cafetería Lago Grey</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Hielos Patagónicos S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1391</v>
+        <v>1200</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>05/09/2013</t>
+          <t>10/09/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128535284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1482397649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Proyecto Embarcación de apoyo a actividades turísticas en Lago Grey</t>
+          <t>Construcción Guardería y Centro de Información Pehoe, Sector Paine Grande, Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>BIG FOOT PATAGONIA SPA.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>12</v>
+        <v>1391</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09/07/2013</t>
+          <t>05/09/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8266016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128535284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Plan de manejo de conservacion estancia cerro paine</t>
+          <t>Proyecto Embarcación de apoyo a actividades turísticas en Lago Grey</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ESTANCIA CERRO PAINE S.A.</t>
+          <t>BIG FOOT PATAGONIA SPA.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4253</v>
+        <v>12</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10/10/2012</t>
+          <t>09/07/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8266016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Reposición Base para personal sector Pudeto</t>
+          <t>Plan de manejo de conservacion estancia cerro paine</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Agroindus Mac Lean S.A.</t>
+          <t>ESTANCIA CERRO PAINE S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>120</v>
+        <v>4253</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20/09/2012</t>
+          <t>10/10/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7346089&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>13/09/2012</t>
+          <t>20/09/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7305599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7346089&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Construcción control de acceso en sector Portería Laguna Amarga, Parque Nacional Torres del Paine</t>
+          <t>Reposición Base para personal sector Pudeto</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Agroindus Mac Lean S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1397</v>
+        <v>120</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>13/09/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7305599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CALEFACCIÓN POR BIOMASA, DE TURISMO LAGO GREY S.A.</t>
+          <t>Construcción control de acceso en sector Portería Laguna Amarga, Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TURISMO LAGO GREY S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>350</v>
+        <v>1397</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09/01/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6459680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN REFUGIO LAGO GREY</t>
+          <t>CALEFACCIÓN POR BIOMASA, DE TURISMO LAGO GREY S.A.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Vértice S.A.</t>
+          <t>TURISMO LAGO GREY S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>02/09/2011</t>
+          <t>09/01/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5939189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6459680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Instalación de Puente Mecano sobre el Río Paine, Sector Laguna Amarga, Parque Nacional Torres del Paine</t>
+          <t>AMPLIACIÓN REFUGIO LAGO GREY</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Vértice S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>62</v>
+        <v>250</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>31/05/2011</t>
+          <t>02/09/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5669582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5939189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DE ACCESIBILIDAD EN SECTOR DE MONTAÑA, PARQUE NACIONAL TORRES DEL PAINE</t>
+          <t>Instalación de Puente Mecano sobre el Río Paine, Sector Laguna Amarga, Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09/05/2011</t>
+          <t>31/05/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5580072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5669582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Instalación de Puente Mecano sobre Río Paine, Sector Laguna Amarga, Parque Nacional Torres del Paine</t>
+          <t>MEJORAMIENTO DE ACCESIBILIDAD EN SECTOR DE MONTAÑA, PARQUE NACIONAL TORRES DEL PAINE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>04/05/2011</t>
+          <t>09/05/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5549581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5580072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Modificación Planta de Tratamiento de Aguas Residuales Proyecto: Reconstrucción Pabellón Dormitorios y Otros en la Concesión de la Isla Pehoé en el Parque Nacional Torres del Paine</t>
+          <t>Instalación de Puente Mecano sobre Río Paine, Sector Laguna Amarga, Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Hotelera Pehoé Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>22/10/2010</t>
+          <t>04/05/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5013064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5549581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Modificación Planta de Tratamiento de Aguas Residuales Proyecto "Reconstrucción Pabellón Dormitorios y Otros en la Concesión de la Isla Pehoé en el Parque Nacional Torres del Paine"</t>
+          <t>Modificación Planta de Tratamiento de Aguas Residuales Proyecto: Reconstrucción Pabellón Dormitorios y Otros en la Concesión de la Isla Pehoé en el Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>30/09/2010</t>
+          <t>22/10/2010</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4886422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5013064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Nueva Ubicación "Construcción y Operación de Parador Pudeto Sector Pudeto" P.N. Torres del Paine Parador Pudeto</t>
+          <t>Modificación Planta de Tratamiento de Aguas Residuales Proyecto "Reconstrucción Pabellón Dormitorios y Otros en la Concesión de la Isla Pehoé en el Parque Nacional Torres del Paine"</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Agroindus Mac Lean S.A.</t>
+          <t>Hotelera Pehoé Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>03/08/2010</t>
+          <t>30/09/2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4807850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4886422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Construcción y Operación del Hotel Tierra Patagonia</t>
+          <t>Nueva Ubicación "Construcción y Operación de Parador Pudeto Sector Pudeto" P.N. Torres del Paine Parador Pudeto</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Asesorias e Inversiones KATARI S.A.</t>
+          <t>Agroindus Mac Lean S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>13000</v>
+        <v>135</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>17/05/2010</t>
+          <t>03/08/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4536582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4807850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Construcción de Parador y Refugio Pudeto Sector Pudeto P.N. Torres del Paine (e-seia)</t>
+          <t>Construcción y Operación del Hotel Tierra Patagonia</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Agroindus Mac Lean S.A.</t>
+          <t>Asesorias e Inversiones KATARI S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>135</v>
+        <v>13000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>13/01/2010</t>
+          <t>17/05/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4316377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4536582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Regularización Ambiental Construcción y Habilitación Segunda Etapa Hotel Cabañas del Paine (e-seia)</t>
+          <t>Construcción de Parador y Refugio Pudeto Sector Pudeto P.N. Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Turismo Cabañas del Paine Limitada</t>
+          <t>Agroindus Mac Lean S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>695</v>
+        <v>135</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>04/01/2010</t>
+          <t>13/01/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4284835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4316377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ampliación Hotel Lago Grey, Modificación y Mejoramiento de Servicios Básicos (e-seia)</t>
+          <t>Regularización Ambiental Construcción y Habilitación Segunda Etapa Hotel Cabañas del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TURISMO LAGO GREY S.A.</t>
+          <t>Turismo Cabañas del Paine Limitada</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3000</v>
+        <v>695</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>04/01/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4172449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4284835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Habilitación de Nuevos Sitios de Camping Obras de Mantención Camping Serrano (e-seia)</t>
+          <t>Ampliación Hotel Lago Grey, Modificación y Mejoramiento de Servicios Básicos (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Caja de Compensación Los Andes</t>
+          <t>TURISMO LAGO GREY S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>450</v>
+        <v>3000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>30/09/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4078444&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4172449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Habilitación de Nuevos Sitios de Camping Obras de Manteción Camping Serrano (e-seia)</t>
+          <t>Habilitación de Nuevos Sitios de Camping Obras de Mantención Camping Serrano (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>28/09/2009</t>
+          <t>30/09/2009</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4070919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4078444&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Servicio de Albergue y Área de Acampar Destinados a Caminantes de Zona Primitiva, Sector Lago Grey, Lago Dickson y los Perros, Parque Nacional Torres del Paine (e-seia)</t>
+          <t>Habilitación de Nuevos Sitios de Camping Obras de Manteción Camping Serrano (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Vértice S.A.</t>
+          <t>Caja de Compensación Los Andes</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>16/09/2009</t>
+          <t>28/09/2009</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4052658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4070919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>"Servicio de Albergue y Área de Acampar Destinados a Caminantes de Zona Primitiva, Sector Lago Grey, Lago Dickson y los Perros, Parque Nacional Torres del Paine" (e-seia)</t>
+          <t>Servicio de Albergue y Área de Acampar Destinados a Caminantes de Zona Primitiva, Sector Lago Grey, Lago Dickson y los Perros, Parque Nacional Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3135,17 +3135,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>02/09/2009</t>
+          <t>16/09/2009</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3914980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4052658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Disposición Final Efluente Planta de Tratamiento Camping Serrano (e-seia)</t>
+          <t>"Servicio de Albergue y Área de Acampar Destinados a Caminantes de Zona Primitiva, Sector Lago Grey, Lago Dickson y los Perros, Parque Nacional Torres del Paine" (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Caja de Compensación Los Andes</t>
+          <t>Vértice S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>15</v>
+        <v>1200</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>16/12/2008</t>
+          <t>02/09/2009</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3431021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3914980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>09/12/2008</t>
+          <t>16/12/2008</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377921&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3431021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Habilitación de Embarcadero Lago Grey (e-seia)</t>
+          <t>Modificación Sistema de Disposición Final Efluente Planta de Tratamiento Camping Serrano (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Francisco Lopez Mercado</t>
+          <t>Caja de Compensación Los Andes</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>26/03/2008</t>
+          <t>09/12/2008</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2802561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377921&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Natales Torres del Payne Plan Regulador Intercomunal Natales-Torres del Pay (e-seia)</t>
+          <t>Habilitación de Embarcadero Lago Grey (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Francisco Lopez Mercado</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>26/03/2008</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2802561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mejoramiento y Reconstrucción de Embarcaderos y Pasarelas en Senderos Salto Río Serrano (e-seia)</t>
+          <t>Plan Regulador Intercomunal Natales Torres del Payne Plan Regulador Intercomunal Natales-Torres del Pay (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Punta Alta S.A</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>24/10/2007</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2459237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Mejoramiento y Reconstrucción de Embarcaderos y Pasarelas en Senderos Salto Río Serrano (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Punta Alta S.A</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>24/10/2007</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2459237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Construcción Portería Sector Serrano Parque Nacional Torres del Paine (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>28/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2167969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
+          <t>Construcción Portería Sector Serrano Parque Nacional Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>25/06/2007</t>
+          <t>28/06/2007</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2167969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Reposición Puente Weber, Ruta Y - 156, XII Región (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1670</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>23/04/2007</t>
+          <t>25/06/2007</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2107430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Embarcación y Embarcadero Servicios de Caminatas en Hielo Sector Refugio Grey (e-seia)</t>
+          <t>Reposición Puente Weber, Ruta Y - 156, XII Región (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sergio Echeverria German</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>34</v>
+        <v>1670</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>15/03/2007</t>
+          <t>23/04/2007</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2046569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2107430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Embarcación y Embarcadero Servicios de Caminatas en Hielo Sector Refugio Grey (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,20 +3698,20 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Sergio Echeverria German</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>15/03/2007</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2046569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3759,17 +3759,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN PORTERÍA SECTOR SERRANO Y BAÑOS DE USO PÚBLICO EN SECTOR PUDETO Y CAMPAMENTO TORRES (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>24/03/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1359298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Radioestaciòn MG115 Torres del Paine (e-seia)</t>
+          <t>CONSTRUCCIÓN PORTERÍA SECTOR SERRANO Y BAÑOS DE USO PÚBLICO EN SECTOR PUDETO Y CAMPAMENTO TORRES (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ENTEL PCS Telecomunicaciones S.A.</t>
+          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>04/11/2005</t>
+          <t>24/03/2006</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1093069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1359298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Disposición Final Efluente - Planta de Tratamiento Hotel Salto Chico (e-seia)</t>
+          <t>Radioestaciòn MG115 Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Explora S.A.</t>
+          <t>ENTEL PCS Telecomunicaciones S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>14/10/2005</t>
+          <t>04/11/2005</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1062084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1093069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Disposición Final Efluente - Planta de Tratamiento Hotel Cabañas del Paine (e-seia)</t>
+          <t>Modificación Sistema de Disposición Final Efluente - Planta de Tratamiento Hotel Salto Chico (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Turismo Cabañas del Paine Limitada</t>
+          <t>Explora S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>07/09/2005</t>
+          <t>14/10/2005</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1009250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1062084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento y Disposición Final Aguas Servidas Hotel Río Serrano Turismo Río Serrano Ltda. Torres del Paine (e-seia)</t>
+          <t>Modificación Sistema de Disposición Final Efluente - Planta de Tratamiento Hotel Cabañas del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Sociedad de Turismo Río Serrano y Compañía Limitada</t>
+          <t>Turismo Cabañas del Paine Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>08/08/2005</t>
+          <t>07/09/2005</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=969871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1009250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Plan de Restauración del Patrimonio Natural del Parque Nacional Torres del Paine Afectado por Incendio Forestal 2005 (e-seia)</t>
+          <t>Mejoramiento Sistema de Tratamiento y Disposición Final Aguas Servidas Hotel Río Serrano Turismo Río Serrano Ltda. Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
+          <t>Sociedad de Turismo Río Serrano y Compañía Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>7258</v>
+        <v>50</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>08/06/2005</t>
+          <t>08/08/2005</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=882848&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=969871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Infraestructura de apoyo a Servicio de Cabalgata en el Parque Nacional Torres del Paine (e-seia)</t>
+          <t>Plan de Restauración del Patrimonio Natural del Parque Nacional Torres del Paine Afectado por Incendio Forestal 2005 (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transportes Baqueano Zamora Ltda.</t>
+          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>200</v>
+        <v>7258</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>27/01/2005</t>
+          <t>08/06/2005</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=521188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=882848&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Camping Río Serrano (e-seia)</t>
+          <t>Infraestructura de apoyo a Servicio de Cabalgata en el Parque Nacional Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Caja de Compensación de Asignación Familiar de los Andes</t>
+          <t>Transportes Baqueano Zamora Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>01/12/2004</t>
+          <t>27/01/2005</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=525486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=521188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Camping Río Serrano (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Caja de Compensación de Asignación Familiar de los Andes</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>01/12/2004</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=525486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Concesión Ampliación Camping Lago Pehoé; Parque Nacional Torres del Paine (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Sodexho Chile S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>660</v>
+        <v>200</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>14/04/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=320312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Ampliación Refugios y Camping sectores Lago Grey y Ventisquero Los Perros, Parque Nacional Torres del Paine (e-seia)</t>
+          <t>Concesión Ampliación Camping Lago Pehoé; Parque Nacional Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Concesión de Refugios Turísticos Ltda.</t>
+          <t>Sodexho Chile S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>25</v>
+        <v>660</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>10/11/2003</t>
+          <t>14/04/2004</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=194723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=320312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Construcción Puente Grey, Camino Administración de Paine-Glaciar Grey, Provincia de Última Esperanza, XII Región (e-seia)</t>
+          <t>Ampliación Refugios y Camping sectores Lago Grey y Ventisquero Los Perros, Parque Nacional Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Última Esperanza</t>
+          <t>Concesión de Refugios Turísticos Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2540</v>
+        <v>25</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>23/10/2003</t>
+          <t>10/11/2003</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=183363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=194723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Plan Seccional Río Serrano (e-seia)</t>
+          <t>Construcción Puente Grey, Camino Administración de Paine-Glaciar Grey, Provincia de Última Esperanza, XII Región (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Torres del Payne</t>
+          <t>Gobernación Provincial de Última Esperanza</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>2540</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>06/10/2003</t>
+          <t>23/10/2003</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=160791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=183363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Reposición Embarcación en Lago Pehoé, Parque Nacional Torres del Paine - Hotel Salto Chico (e-seia)</t>
+          <t>Plan Seccional Río Serrano (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>explora S.A.</t>
+          <t>Ilustre Municipalidad de Torres del Payne</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>10/09/2003</t>
+          <t>06/10/2003</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=146710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=160791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Hotel Altavista (e-seia)</t>
+          <t>Reposición Embarcación en Lago Pehoé, Parque Nacional Torres del Paine - Hotel Salto Chico (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Complejo Torres del Paine S.A.</t>
+          <t>explora S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>29/08/2003</t>
+          <t>10/09/2003</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=140398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=146710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>Hotel Altavista (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
+          <t>Complejo Torres del Paine S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>29/08/2003</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=140398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ampliación Hotel Salto Chico (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>explora S.A.</t>
+          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>17/03/2003</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=58991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Construcción Albergue y Área de Acampar para Caminantes de Zona Primitiva Sector Pehoé Parque Nacional Torres del Paine</t>
+          <t>Ampliación Hotel Salto Chico (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Vértice S.A.</t>
+          <t>explora S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>22/01/2003</t>
+          <t>17/03/2003</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=58991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Agua Potable Comuna de Torres del Paine</t>
+          <t>Construcción Albergue y Área de Acampar para Caminantes de Zona Primitiva Sector Pehoé Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Torres del Payne</t>
+          <t>Vértice S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>15/10/2002</t>
+          <t>22/01/2003</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Alcantarillado Comuna de Torres del Paine</t>
+          <t>Mejoramiento del Sistema de Agua Potable Comuna de Torres del Paine</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ampliación Hostería Las Torres de la Patagonia Viviendas para el Personal</t>
+          <t>Mejoramiento del Sistema de Alcantarillado Comuna de Torres del Paine</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Las Torres de la Patagonia S.A.</t>
+          <t>Ilustre Municipalidad de Torres del Payne</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>14/06/2002</t>
+          <t>15/10/2002</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Caballerizas Hotel Explora S.A.</t>
+          <t>Ampliación Hostería Las Torres de la Patagonia Viviendas para el Personal</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Explora S.A.</t>
+          <t>Las Torres de la Patagonia S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>14/05/2002</t>
+          <t>14/06/2002</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Puente Río Serrano</t>
+          <t>Caballerizas Hotel Explora S.A.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Explora S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>07/05/2002</t>
+          <t>14/05/2002</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Construcción y Habilitación Hotel Río Serrano - II Presentación</t>
+          <t>Puente Río Serrano</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Jaksic y Sólo de Saldivar S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>19/02/2002</t>
+          <t>07/05/2002</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Reconstrucción Pabellón Dormitorios y otros en la Concesión de la Isla Pehoé en el Parque Nacional Torres del Paine</t>
+          <t>Construcción y Habilitación Hotel Río Serrano - II Presentación</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>TURISMO ALTO PEHOE LTDA</t>
+          <t>Jaksic y Sólo de Saldivar S.A</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>31/12/2001</t>
+          <t>19/02/2002</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Ampliación Remodelacion y Modificación del Sistema de Alcantarillado de la Hostería del Complejo Turístico Lago Grey</t>
+          <t>Reconstrucción Pabellón Dormitorios y otros en la Concesión de la Isla Pehoé en el Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Complejo Turístico Lago Grey Ltda.</t>
+          <t>TURISMO ALTO PEHOE LTDA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>24/10/2001</t>
+          <t>31/12/2001</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Habilitación y Construcción Hotel Río Serrano</t>
+          <t>Ampliación Remodelacion y Modificación del Sistema de Alcantarillado de la Hostería del Complejo Turístico Lago Grey</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Jaksic y Sólo de Saldivar S.A</t>
+          <t>Complejo Turístico Lago Grey Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>24/09/2001</t>
+          <t>24/10/2001</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Ampliación Hostería Las Torres de la Patagonia - Recepción y Centro Interpretativo</t>
+          <t>Habilitación y Construcción Hotel Río Serrano</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Las Torres de la Patagonia S.A.</t>
+          <t>Jaksic y Sólo de Saldivar S.A</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>14/09/2001</t>
+          <t>24/09/2001</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Construcción de Atracadero de Embarcaciones Menores - Complejo Turístico Estancia Perales</t>
+          <t>Ampliación Hostería Las Torres de la Patagonia - Recepción y Centro Interpretativo</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Juana Rodríguez Tevini</t>
+          <t>Las Torres de la Patagonia S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>08/01/2001</t>
+          <t>14/09/2001</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Construcción Hotel Río Serrano</t>
+          <t>Construcción de Atracadero de Embarcaciones Menores - Complejo Turístico Estancia Perales</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sociedad de Turismo Río Serrano y Compañía Limitada</t>
+          <t>Juana Rodríguez Tevini</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>26/07/2000</t>
+          <t>08/01/2001</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Construcción Baños Uso Público - Parque Nacional Torres del Paine</t>
+          <t>Construcción Hotel Río Serrano</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
+          <t>Sociedad de Turismo Río Serrano y Compañía Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>160</v>
+        <v>1500</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>10/07/2000</t>
+          <t>26/07/2000</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Construcción Baños Uso Público - Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,20 +5282,20 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>10/07/2000</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Refugio de Mochileros - El Coirón</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,20 +5330,20 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Fantástico Sur Ltda.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>18/11/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Refugio de Mochileros - Chileno</t>
+          <t>Refugio de Mochileros - El Coirón</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5387,7 +5387,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Refugio de Mochileros - Los Cuernos</t>
+          <t>Refugio de Mochileros - Chileno</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Servicio de Navegación en Lago Pehoé Parque Nacional Torres del Paine</t>
+          <t>Refugio de Mochileros - Los Cuernos</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad Agroindus Mac Lean Ltda.</t>
+          <t>Fantástico Sur Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>13/09/1999</t>
+          <t>18/11/1999</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Ampliación Hostería Las Torres de la Patagonia</t>
+          <t>Servicio de Navegación en Lago Pehoé Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Las Torres de la Patagonia S.A.</t>
+          <t>Sociedad Agroindus Mac Lean Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>490</v>
+        <v>100</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>01/09/1999</t>
+          <t>13/09/1999</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Proyecto Río Serrano</t>
+          <t>Ampliación Hostería Las Torres de la Patagonia</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>GALA INVERSIONES LIMITADA</t>
+          <t>Las Torres de la Patagonia S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>800</v>
+        <v>490</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>30/06/1999</t>
+          <t>01/09/1999</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Construcción de Embarcadero y Habilitación de Lancha en Río Serrano</t>
+          <t>Proyecto Río Serrano</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Cristian Boré Pineda</t>
+          <t>GALA INVERSIONES LIMITADA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>12/02/1999</t>
+          <t>30/06/1999</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Construcción Atracadero de Embarcación</t>
+          <t>Construcción de Embarcadero y Habilitación de Lancha en Río Serrano</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Complejo Turístico Lago Grey Ltda.</t>
+          <t>Cristian Boré Pineda</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>17/09/1998</t>
+          <t>12/02/1999</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Reemplazo de Embarcación Lago Grey</t>
+          <t>Construcción Atracadero de Embarcación</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5727,17 +5727,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>16/09/1998</t>
+          <t>17/09/1998</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,43 +5752,91 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
+          <t>Reemplazo de Embarcación Lago Grey</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Complejo Turístico Lago Grey Ltda.</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>50</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>16/09/1998</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Torres del Paine</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
           <t>Proyecto Turístico Monte Balmaceda</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Duodécima</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
         <is>
           <t>Turismo Balmaceda Ltda.</t>
         </is>
       </c>
-      <c r="F113" t="n">
+      <c r="F114" t="n">
         <v>850</v>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>12/01/1998</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=822&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
           <t>Torres del Paine</t>
         </is>

--- a/data/Torres del Paine.xlsx
+++ b/data/Torres del Paine.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Regularización empréstito proyecto vial ruta 9</t>
+          <t>Regularización Empréstito San Antonio</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,12 +434,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ingeniería Civil Vicente S.A.</t>
+          <t>Ingeniería Civil Vicente Ltda.</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/09/2022</t>
+          <t>25/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157150759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157169157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extracción de Áridos para Mejoramiento de Ruta 9</t>
+          <t>Regularización empréstito proyecto vial ruta 9</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,7 +482,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>06/10/2021</t>
+          <t>22/09/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153366471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157150759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Estancia Perales, Fiordo Azul.</t>
+          <t>Extracción de Áridos para Mejoramiento de Ruta 9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hotelera Fiordo Azul Ltda.</t>
+          <t>Ingeniería Civil Vicente S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>700</v>
+        <v>1191</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12/01/2021</t>
+          <t>06/10/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149417862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153366471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bodega de Acopio de Residuos Reciclables y Valorizables Las Torres de la Patagonia</t>
+          <t>Estancia Perales, Fiordo Azul.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Las Torres de la Patagonia S.A.</t>
+          <t>Hotelera Fiordo Azul Ltda.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18/01/2019</t>
+          <t>12/01/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142342980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149417862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito Cárdenas y Hernández</t>
+          <t>Bodega de Acopio de Residuos Reciclables y Valorizables Las Torres de la Patagonia</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ingeniería Civil Vicente S.A.</t>
+          <t>Las Torres de la Patagonia S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>29/11/2018</t>
+          <t>18/01/2019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141954754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142342980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Italiano del Parque Nacional Torres Del Paine.</t>
+          <t>Extracción de Áridos Empréstito Cárdenas y Hernández</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
+          <t>Ingeniería Civil Vicente S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>652</v>
+        <v>850</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>13/08/2018</t>
+          <t>29/11/2018</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141157996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141954754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Paso del Parque Nacional Torres Del Paine.</t>
+          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Italiano del Parque Nacional Torres Del Paine.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,11 +731,11 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>491</v>
+        <v>652</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09/08/2018</t>
+          <t>13/08/2018</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141158342&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141157996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>16/11/2017</t>
+          <t>09/08/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133482925&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141158342&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Italiano del Parque Nacional Torres del Paine</t>
+          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Paso del Parque Nacional Torres Del Paine.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>652</v>
+        <v>491</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133474911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133482925&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Modificación RCA Ampliación Hotel Salto Chico</t>
+          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Italiano del Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>EXPLORA CHILE S.A.</t>
+          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>359</v>
+        <v>652</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>16/11/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132773483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133474911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Paso del Parque Nacional Torres Del Paine</t>
+          <t>Modificación RCA Ampliación Hotel Salto Chico</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
+          <t>EXPLORA CHILE S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>491</v>
+        <v>359</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>06/10/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132784702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132773483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Italiano del Parque Nacional Torres Del Paine</t>
+          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Paso del Parque Nacional Torres Del Paine</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>652</v>
+        <v>491</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132786902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132784702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Proyecto Servicio de Albergue y Área de Acampar Sectores Central y Serón estancia Cerro Paine</t>
+          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Italiano del Parque Nacional Torres Del Paine</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Fantástico Sur Ltda.</t>
+          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4800</v>
+        <v>652</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08/08/2017</t>
+          <t>06/10/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132600309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132786902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Modificación Refugios Chileno y Los Cuernos estancia Cerro Paine</t>
+          <t>Proyecto Servicio de Albergue y Área de Acampar Sectores Central y Serón estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1067,11 +1067,11 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1200</v>
+        <v>4800</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>04/08/2017</t>
+          <t>08/08/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132600284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132600309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Servicio de Albergue y Área de Acampar Sector Francés estancia Cerro Paine</t>
+          <t>Modificación Refugios Chileno y Los Cuernos estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1115,11 +1115,11 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4600</v>
+        <v>1200</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>03/08/2017</t>
+          <t>04/08/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132600257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132600284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modificación Lodge y Área de Acampar Lago Grey, Torres del Paine</t>
+          <t>Servicio de Albergue y Área de Acampar Sector Francés estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Vértice S.A.</t>
+          <t>Fantástico Sur Ltda.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>150</v>
+        <v>4600</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>14/07/2017</t>
+          <t>03/08/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132535023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132600257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Modificación Lodge y Área de Acampar Paine Grande, Torres del Paine</t>
+          <t>Modificación Lodge y Área de Acampar Lago Grey, Torres del Paine</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1211,11 +1211,11 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12/07/2017</t>
+          <t>14/07/2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132535195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132535023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Modificación Hotel Las Torres Patagonia</t>
+          <t>Modificación Lodge y Área de Acampar Paine Grande, Torres del Paine</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Las Torres de la Patagonia S.A.</t>
+          <t>Vértice S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4000</v>
+        <v>80</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10/07/2017</t>
+          <t>12/07/2017</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132520884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132535195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Servicio de Albergue y Área de Acampar Sector Francés estancia Cerro Paine</t>
+          <t>Modificación Hotel Las Torres Patagonia</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Fantástico Sur Ltda.</t>
+          <t>Las Torres de la Patagonia S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>07/07/2017</t>
+          <t>10/07/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132523851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132520884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>07/06/2017</t>
+          <t>07/07/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132448738&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132523851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Modificación Refugios Chileno y Los Cuernos estancia Cerro Paine</t>
+          <t>Servicio de Albergue y Área de Acampar Sector Francés estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1403,11 +1403,11 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1200</v>
+        <v>4600</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>06/06/2017</t>
+          <t>07/06/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132358488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132448738&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Proyecto Modificación Refugios Chileno y Los Cuernos estancia Cerro Paine</t>
+          <t>Modificación Refugios Chileno y Los Cuernos estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>11/04/2017</t>
+          <t>06/06/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132310219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132358488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Servicio de Albergue y Área de Acampar Sector Francés estancia Cerro Paine</t>
+          <t>Proyecto Modificación Refugios Chileno y Los Cuernos estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1499,21 +1499,21 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4600</v>
+        <v>1200</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>03/04/2017</t>
+          <t>11/04/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132275199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132310219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>13/02/2017</t>
+          <t>03/04/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132164725&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132275199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Infraestructura y servicios de apoyo a caminantes en estancia Cerro Paine</t>
+          <t>Servicio de Albergue y Área de Acampar Sector Francés estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1595,21 +1595,21 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>800</v>
+        <v>4600</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>16/12/2016</t>
+          <t>13/02/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131998147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132164725&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Normalización navegación embarcaciones de apoyo en Parque Nacional Torres del Paine</t>
+          <t>Infraestructura y servicios de apoyo a caminantes en estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Vértice S.A.</t>
+          <t>Fantástico Sur Ltda.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>45</v>
+        <v>800</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>14/10/2016</t>
+          <t>16/12/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131811694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131998147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Navegación de Apoyo en el Lago Grey</t>
+          <t>Normalización navegación embarcaciones de apoyo en Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Turismo Lago Grey S.A.</t>
+          <t>Vértice S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>23/09/2016</t>
+          <t>14/10/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131814983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131811694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS LAGUNA AMARGA</t>
+          <t>Navegación de Apoyo en el Lago Grey</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Turismo Lago Grey S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>15/03/2016</t>
+          <t>23/09/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131245434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131814983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Navegación embarcación de apoyo en Lago Nordensjköld</t>
+          <t>EXTRACCIÓN DE ÁRIDOS LAGUNA AMARGA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Fantástico Sur Ltda.</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>28/01/2016</t>
+          <t>15/03/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131033511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131245434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Reutilización de Lodos de Piscicultura</t>
+          <t>Navegación embarcación de apoyo en Lago Nordensjköld</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Fantástico Sur Ltda.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>18/11/2015</t>
+          <t>28/01/2016</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130923324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131033511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Navegación embarcaciones de apoyo a en Lago Nordensjköld</t>
+          <t>Reutilización de Lodos de Piscicultura</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Fantástico Sur Ltda.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>13/08/2015</t>
+          <t>18/11/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130694059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130923324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Reutilización de Lodos de Piscicultura</t>
+          <t>Navegación embarcaciones de apoyo a en Lago Nordensjköld</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Fantástico Sur Ltda.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18/06/2015</t>
+          <t>13/08/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130554144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130694059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte y Reemplazo de Embarcación Navegación Turística Lago Grey</t>
+          <t>Reutilización de Lodos de Piscicultura</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Turismo Lago Grey S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1400</v>
+        <v>90</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18/06/2014</t>
+          <t>18/06/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129551839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130554144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Kayak y Floating en Río Paine</t>
+          <t>Transporte y Reemplazo de Embarcación Navegación Turística Lago Grey</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Inmobiliaria Kusanovic Ltda</t>
+          <t>Turismo Lago Grey S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>201</v>
+        <v>1400</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>18/06/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128718570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129551839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Construcción Puente Laguna Amarga y Puente Torres del Paine</t>
+          <t>Kayak y Floating en Río Paine</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Última Esperanza</t>
+          <t>Inmobiliaria Kusanovic Ltda</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>12500</v>
+        <v>201</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09/12/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128900386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128718570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cafetería Lago Grey</t>
+          <t>Construcción Puente Laguna Amarga y Puente Torres del Paine</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Hielos Patagónicos S.A.</t>
+          <t>Gobernación Provincial de Última Esperanza</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1200</v>
+        <v>12500</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10/09/2013</t>
+          <t>09/12/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1482397649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128900386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Construcción Guardería y Centro de Información Pehoe, Sector Paine Grande, Parque Nacional Torres del Paine</t>
+          <t>Cafetería Lago Grey</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Hielos Patagónicos S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1391</v>
+        <v>1200</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>05/09/2013</t>
+          <t>10/09/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128535284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1482397649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Proyecto Embarcación de apoyo a actividades turísticas en Lago Grey</t>
+          <t>Construcción Guardería y Centro de Información Pehoe, Sector Paine Grande, Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>BIG FOOT PATAGONIA SPA.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>12</v>
+        <v>1391</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09/07/2013</t>
+          <t>05/09/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8266016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128535284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Plan de manejo de conservacion estancia cerro paine</t>
+          <t>Proyecto Embarcación de apoyo a actividades turísticas en Lago Grey</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ESTANCIA CERRO PAINE S.A.</t>
+          <t>BIG FOOT PATAGONIA SPA.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4253</v>
+        <v>12</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>10/10/2012</t>
+          <t>09/07/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8266016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Reposición Base para personal sector Pudeto</t>
+          <t>Plan de manejo de conservacion estancia cerro paine</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Agroindus Mac Lean S.A.</t>
+          <t>ESTANCIA CERRO PAINE S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>120</v>
+        <v>4253</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>20/09/2012</t>
+          <t>10/10/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7346089&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>13/09/2012</t>
+          <t>20/09/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7305599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7346089&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Construcción control de acceso en sector Portería Laguna Amarga, Parque Nacional Torres del Paine</t>
+          <t>Reposición Base para personal sector Pudeto</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Agroindus Mac Lean S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1397</v>
+        <v>120</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>13/09/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7305599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CALEFACCIÓN POR BIOMASA, DE TURISMO LAGO GREY S.A.</t>
+          <t>Construcción control de acceso en sector Portería Laguna Amarga, Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TURISMO LAGO GREY S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>350</v>
+        <v>1397</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09/01/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6459680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN REFUGIO LAGO GREY</t>
+          <t>CALEFACCIÓN POR BIOMASA, DE TURISMO LAGO GREY S.A.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Vértice S.A.</t>
+          <t>TURISMO LAGO GREY S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>02/09/2011</t>
+          <t>09/01/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5939189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6459680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Instalación de Puente Mecano sobre el Río Paine, Sector Laguna Amarga, Parque Nacional Torres del Paine</t>
+          <t>AMPLIACIÓN REFUGIO LAGO GREY</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Vértice S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>62</v>
+        <v>250</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>31/05/2011</t>
+          <t>02/09/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5669582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5939189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DE ACCESIBILIDAD EN SECTOR DE MONTAÑA, PARQUE NACIONAL TORRES DEL PAINE</t>
+          <t>Instalación de Puente Mecano sobre el Río Paine, Sector Laguna Amarga, Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>09/05/2011</t>
+          <t>31/05/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5580072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5669582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Instalación de Puente Mecano sobre Río Paine, Sector Laguna Amarga, Parque Nacional Torres del Paine</t>
+          <t>MEJORAMIENTO DE ACCESIBILIDAD EN SECTOR DE MONTAÑA, PARQUE NACIONAL TORRES DEL PAINE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>04/05/2011</t>
+          <t>09/05/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5549581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5580072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Modificación Planta de Tratamiento de Aguas Residuales Proyecto: Reconstrucción Pabellón Dormitorios y Otros en la Concesión de la Isla Pehoé en el Parque Nacional Torres del Paine</t>
+          <t>Instalación de Puente Mecano sobre Río Paine, Sector Laguna Amarga, Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Hotelera Pehoé Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>22/10/2010</t>
+          <t>04/05/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5013064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5549581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Modificación Planta de Tratamiento de Aguas Residuales Proyecto "Reconstrucción Pabellón Dormitorios y Otros en la Concesión de la Isla Pehoé en el Parque Nacional Torres del Paine"</t>
+          <t>Modificación Planta de Tratamiento de Aguas Residuales Proyecto: Reconstrucción Pabellón Dormitorios y Otros en la Concesión de la Isla Pehoé en el Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>30/09/2010</t>
+          <t>22/10/2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4886422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5013064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Nueva Ubicación "Construcción y Operación de Parador Pudeto Sector Pudeto" P.N. Torres del Paine Parador Pudeto</t>
+          <t>Modificación Planta de Tratamiento de Aguas Residuales Proyecto "Reconstrucción Pabellón Dormitorios y Otros en la Concesión de la Isla Pehoé en el Parque Nacional Torres del Paine"</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Agroindus Mac Lean S.A.</t>
+          <t>Hotelera Pehoé Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>03/08/2010</t>
+          <t>30/09/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4807850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4886422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Construcción y Operación del Hotel Tierra Patagonia</t>
+          <t>Nueva Ubicación "Construcción y Operación de Parador Pudeto Sector Pudeto" P.N. Torres del Paine Parador Pudeto</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Asesorias e Inversiones KATARI S.A.</t>
+          <t>Agroindus Mac Lean S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>13000</v>
+        <v>135</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>17/05/2010</t>
+          <t>03/08/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4536582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4807850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Construcción de Parador y Refugio Pudeto Sector Pudeto P.N. Torres del Paine (e-seia)</t>
+          <t>Construcción y Operación del Hotel Tierra Patagonia</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Agroindus Mac Lean S.A.</t>
+          <t>Asesorias e Inversiones KATARI S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>135</v>
+        <v>13000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>13/01/2010</t>
+          <t>17/05/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4316377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4536582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Regularización Ambiental Construcción y Habilitación Segunda Etapa Hotel Cabañas del Paine (e-seia)</t>
+          <t>Construcción de Parador y Refugio Pudeto Sector Pudeto P.N. Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Turismo Cabañas del Paine Limitada</t>
+          <t>Agroindus Mac Lean S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>695</v>
+        <v>135</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>04/01/2010</t>
+          <t>13/01/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4284835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4316377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliación Hotel Lago Grey, Modificación y Mejoramiento de Servicios Básicos (e-seia)</t>
+          <t>Regularización Ambiental Construcción y Habilitación Segunda Etapa Hotel Cabañas del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>TURISMO LAGO GREY S.A.</t>
+          <t>Turismo Cabañas del Paine Limitada</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3000</v>
+        <v>695</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>04/01/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4172449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4284835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Habilitación de Nuevos Sitios de Camping Obras de Mantención Camping Serrano (e-seia)</t>
+          <t>Ampliación Hotel Lago Grey, Modificación y Mejoramiento de Servicios Básicos (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Caja de Compensación Los Andes</t>
+          <t>TURISMO LAGO GREY S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>450</v>
+        <v>3000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>30/09/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4078444&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4172449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Habilitación de Nuevos Sitios de Camping Obras de Manteción Camping Serrano (e-seia)</t>
+          <t>Habilitación de Nuevos Sitios de Camping Obras de Mantención Camping Serrano (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3087,17 +3087,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>28/09/2009</t>
+          <t>30/09/2009</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4070919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4078444&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Servicio de Albergue y Área de Acampar Destinados a Caminantes de Zona Primitiva, Sector Lago Grey, Lago Dickson y los Perros, Parque Nacional Torres del Paine (e-seia)</t>
+          <t>Habilitación de Nuevos Sitios de Camping Obras de Manteción Camping Serrano (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Vértice S.A.</t>
+          <t>Caja de Compensación Los Andes</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>16/09/2009</t>
+          <t>28/09/2009</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4052658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4070919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>"Servicio de Albergue y Área de Acampar Destinados a Caminantes de Zona Primitiva, Sector Lago Grey, Lago Dickson y los Perros, Parque Nacional Torres del Paine" (e-seia)</t>
+          <t>Servicio de Albergue y Área de Acampar Destinados a Caminantes de Zona Primitiva, Sector Lago Grey, Lago Dickson y los Perros, Parque Nacional Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3183,17 +3183,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>02/09/2009</t>
+          <t>16/09/2009</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3914980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4052658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Disposición Final Efluente Planta de Tratamiento Camping Serrano (e-seia)</t>
+          <t>"Servicio de Albergue y Área de Acampar Destinados a Caminantes de Zona Primitiva, Sector Lago Grey, Lago Dickson y los Perros, Parque Nacional Torres del Paine" (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Caja de Compensación Los Andes</t>
+          <t>Vértice S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>15</v>
+        <v>1200</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>16/12/2008</t>
+          <t>02/09/2009</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3431021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3914980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>09/12/2008</t>
+          <t>16/12/2008</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377921&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3431021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Habilitación de Embarcadero Lago Grey (e-seia)</t>
+          <t>Modificación Sistema de Disposición Final Efluente Planta de Tratamiento Camping Serrano (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Francisco Lopez Mercado</t>
+          <t>Caja de Compensación Los Andes</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>26/03/2008</t>
+          <t>09/12/2008</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2802561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377921&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Natales Torres del Payne Plan Regulador Intercomunal Natales-Torres del Pay (e-seia)</t>
+          <t>Habilitación de Embarcadero Lago Grey (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Francisco Lopez Mercado</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>26/03/2008</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2802561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Mejoramiento y Reconstrucción de Embarcaderos y Pasarelas en Senderos Salto Río Serrano (e-seia)</t>
+          <t>Plan Regulador Intercomunal Natales Torres del Payne Plan Regulador Intercomunal Natales-Torres del Pay (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Punta Alta S.A</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>24/10/2007</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2459237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Mejoramiento y Reconstrucción de Embarcaderos y Pasarelas en Senderos Salto Río Serrano (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Punta Alta S.A</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>24/10/2007</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2459237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Construcción Portería Sector Serrano Parque Nacional Torres del Paine (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>28/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2167969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
+          <t>Construcción Portería Sector Serrano Parque Nacional Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>25/06/2007</t>
+          <t>28/06/2007</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2167969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Reposición Puente Weber, Ruta Y - 156, XII Región (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1670</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>23/04/2007</t>
+          <t>25/06/2007</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2107430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Embarcación y Embarcadero Servicios de Caminatas en Hielo Sector Refugio Grey (e-seia)</t>
+          <t>Reposición Puente Weber, Ruta Y - 156, XII Región (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Sergio Echeverria German</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>34</v>
+        <v>1670</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>15/03/2007</t>
+          <t>23/04/2007</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2046569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2107430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Embarcación y Embarcadero Servicios de Caminatas en Hielo Sector Refugio Grey (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,20 +3746,20 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Sergio Echeverria German</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>15/03/2007</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2046569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3807,17 +3807,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN PORTERÍA SECTOR SERRANO Y BAÑOS DE USO PÚBLICO EN SECTOR PUDETO Y CAMPAMENTO TORRES (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>24/03/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1359298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Radioestaciòn MG115 Torres del Paine (e-seia)</t>
+          <t>CONSTRUCCIÓN PORTERÍA SECTOR SERRANO Y BAÑOS DE USO PÚBLICO EN SECTOR PUDETO Y CAMPAMENTO TORRES (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ENTEL PCS Telecomunicaciones S.A.</t>
+          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>04/11/2005</t>
+          <t>24/03/2006</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1093069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1359298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Disposición Final Efluente - Planta de Tratamiento Hotel Salto Chico (e-seia)</t>
+          <t>Radioestaciòn MG115 Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Explora S.A.</t>
+          <t>ENTEL PCS Telecomunicaciones S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>14/10/2005</t>
+          <t>04/11/2005</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1062084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1093069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Disposición Final Efluente - Planta de Tratamiento Hotel Cabañas del Paine (e-seia)</t>
+          <t>Modificación Sistema de Disposición Final Efluente - Planta de Tratamiento Hotel Salto Chico (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Turismo Cabañas del Paine Limitada</t>
+          <t>Explora S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>07/09/2005</t>
+          <t>14/10/2005</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1009250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1062084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento y Disposición Final Aguas Servidas Hotel Río Serrano Turismo Río Serrano Ltda. Torres del Paine (e-seia)</t>
+          <t>Modificación Sistema de Disposición Final Efluente - Planta de Tratamiento Hotel Cabañas del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sociedad de Turismo Río Serrano y Compañía Limitada</t>
+          <t>Turismo Cabañas del Paine Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>08/08/2005</t>
+          <t>07/09/2005</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=969871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1009250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Plan de Restauración del Patrimonio Natural del Parque Nacional Torres del Paine Afectado por Incendio Forestal 2005 (e-seia)</t>
+          <t>Mejoramiento Sistema de Tratamiento y Disposición Final Aguas Servidas Hotel Río Serrano Turismo Río Serrano Ltda. Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
+          <t>Sociedad de Turismo Río Serrano y Compañía Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>7258</v>
+        <v>50</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>08/06/2005</t>
+          <t>08/08/2005</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=882848&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=969871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Infraestructura de apoyo a Servicio de Cabalgata en el Parque Nacional Torres del Paine (e-seia)</t>
+          <t>Plan de Restauración del Patrimonio Natural del Parque Nacional Torres del Paine Afectado por Incendio Forestal 2005 (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes Baqueano Zamora Ltda.</t>
+          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>200</v>
+        <v>7258</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>27/01/2005</t>
+          <t>08/06/2005</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=521188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=882848&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Camping Río Serrano (e-seia)</t>
+          <t>Infraestructura de apoyo a Servicio de Cabalgata en el Parque Nacional Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Caja de Compensación de Asignación Familiar de los Andes</t>
+          <t>Transportes Baqueano Zamora Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>01/12/2004</t>
+          <t>27/01/2005</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=525486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=521188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Camping Río Serrano (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Caja de Compensación de Asignación Familiar de los Andes</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>01/12/2004</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=525486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Concesión Ampliación Camping Lago Pehoé; Parque Nacional Torres del Paine (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sodexho Chile S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>660</v>
+        <v>200</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>14/04/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=320312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ampliación Refugios y Camping sectores Lago Grey y Ventisquero Los Perros, Parque Nacional Torres del Paine (e-seia)</t>
+          <t>Concesión Ampliación Camping Lago Pehoé; Parque Nacional Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Concesión de Refugios Turísticos Ltda.</t>
+          <t>Sodexho Chile S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>25</v>
+        <v>660</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>10/11/2003</t>
+          <t>14/04/2004</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=194723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=320312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Construcción Puente Grey, Camino Administración de Paine-Glaciar Grey, Provincia de Última Esperanza, XII Región (e-seia)</t>
+          <t>Ampliación Refugios y Camping sectores Lago Grey y Ventisquero Los Perros, Parque Nacional Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Última Esperanza</t>
+          <t>Concesión de Refugios Turísticos Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2540</v>
+        <v>25</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>23/10/2003</t>
+          <t>10/11/2003</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=183363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=194723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Plan Seccional Río Serrano (e-seia)</t>
+          <t>Construcción Puente Grey, Camino Administración de Paine-Glaciar Grey, Provincia de Última Esperanza, XII Región (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Torres del Payne</t>
+          <t>Gobernación Provincial de Última Esperanza</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>2540</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>06/10/2003</t>
+          <t>23/10/2003</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=160791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=183363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Reposición Embarcación en Lago Pehoé, Parque Nacional Torres del Paine - Hotel Salto Chico (e-seia)</t>
+          <t>Plan Seccional Río Serrano (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>explora S.A.</t>
+          <t>Ilustre Municipalidad de Torres del Payne</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>10/09/2003</t>
+          <t>06/10/2003</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=146710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=160791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Hotel Altavista (e-seia)</t>
+          <t>Reposición Embarcación en Lago Pehoé, Parque Nacional Torres del Paine - Hotel Salto Chico (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Complejo Torres del Paine S.A.</t>
+          <t>explora S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>29/08/2003</t>
+          <t>10/09/2003</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=140398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=146710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>Hotel Altavista (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
+          <t>Complejo Torres del Paine S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>29/08/2003</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=140398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Ampliación Hotel Salto Chico (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>explora S.A.</t>
+          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>17/03/2003</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=58991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Construcción Albergue y Área de Acampar para Caminantes de Zona Primitiva Sector Pehoé Parque Nacional Torres del Paine</t>
+          <t>Ampliación Hotel Salto Chico (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Vértice S.A.</t>
+          <t>explora S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>22/01/2003</t>
+          <t>17/03/2003</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=58991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Agua Potable Comuna de Torres del Paine</t>
+          <t>Construcción Albergue y Área de Acampar para Caminantes de Zona Primitiva Sector Pehoé Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Torres del Payne</t>
+          <t>Vértice S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>15/10/2002</t>
+          <t>22/01/2003</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Alcantarillado Comuna de Torres del Paine</t>
+          <t>Mejoramiento del Sistema de Agua Potable Comuna de Torres del Paine</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ampliación Hostería Las Torres de la Patagonia Viviendas para el Personal</t>
+          <t>Mejoramiento del Sistema de Alcantarillado Comuna de Torres del Paine</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Las Torres de la Patagonia S.A.</t>
+          <t>Ilustre Municipalidad de Torres del Payne</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>14/06/2002</t>
+          <t>15/10/2002</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Caballerizas Hotel Explora S.A.</t>
+          <t>Ampliación Hostería Las Torres de la Patagonia Viviendas para el Personal</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Explora S.A.</t>
+          <t>Las Torres de la Patagonia S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>14/05/2002</t>
+          <t>14/06/2002</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Puente Río Serrano</t>
+          <t>Caballerizas Hotel Explora S.A.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Explora S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>07/05/2002</t>
+          <t>14/05/2002</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Construcción y Habilitación Hotel Río Serrano - II Presentación</t>
+          <t>Puente Río Serrano</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Jaksic y Sólo de Saldivar S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>19/02/2002</t>
+          <t>07/05/2002</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Reconstrucción Pabellón Dormitorios y otros en la Concesión de la Isla Pehoé en el Parque Nacional Torres del Paine</t>
+          <t>Construcción y Habilitación Hotel Río Serrano - II Presentación</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>TURISMO ALTO PEHOE LTDA</t>
+          <t>Jaksic y Sólo de Saldivar S.A</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>31/12/2001</t>
+          <t>19/02/2002</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Ampliación Remodelacion y Modificación del Sistema de Alcantarillado de la Hostería del Complejo Turístico Lago Grey</t>
+          <t>Reconstrucción Pabellón Dormitorios y otros en la Concesión de la Isla Pehoé en el Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Complejo Turístico Lago Grey Ltda.</t>
+          <t>TURISMO ALTO PEHOE LTDA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>24/10/2001</t>
+          <t>31/12/2001</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Habilitación y Construcción Hotel Río Serrano</t>
+          <t>Ampliación Remodelacion y Modificación del Sistema de Alcantarillado de la Hostería del Complejo Turístico Lago Grey</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Jaksic y Sólo de Saldivar S.A</t>
+          <t>Complejo Turístico Lago Grey Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>24/09/2001</t>
+          <t>24/10/2001</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ampliación Hostería Las Torres de la Patagonia - Recepción y Centro Interpretativo</t>
+          <t>Habilitación y Construcción Hotel Río Serrano</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Las Torres de la Patagonia S.A.</t>
+          <t>Jaksic y Sólo de Saldivar S.A</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>14/09/2001</t>
+          <t>24/09/2001</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Construcción de Atracadero de Embarcaciones Menores - Complejo Turístico Estancia Perales</t>
+          <t>Ampliación Hostería Las Torres de la Patagonia - Recepción y Centro Interpretativo</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Juana Rodríguez Tevini</t>
+          <t>Las Torres de la Patagonia S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>08/01/2001</t>
+          <t>14/09/2001</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Construcción Hotel Río Serrano</t>
+          <t>Construcción de Atracadero de Embarcaciones Menores - Complejo Turístico Estancia Perales</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad de Turismo Río Serrano y Compañía Limitada</t>
+          <t>Juana Rodríguez Tevini</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>26/07/2000</t>
+          <t>08/01/2001</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Construcción Baños Uso Público - Parque Nacional Torres del Paine</t>
+          <t>Construcción Hotel Río Serrano</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
+          <t>Sociedad de Turismo Río Serrano y Compañía Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>160</v>
+        <v>1500</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>10/07/2000</t>
+          <t>26/07/2000</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Construcción Baños Uso Público - Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,20 +5330,20 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>10/07/2000</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Refugio de Mochileros - El Coirón</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,20 +5378,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Fantástico Sur Ltda.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>18/11/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Refugio de Mochileros - Chileno</t>
+          <t>Refugio de Mochileros - El Coirón</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Refugio de Mochileros - Los Cuernos</t>
+          <t>Refugio de Mochileros - Chileno</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5483,7 +5483,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Servicio de Navegación en Lago Pehoé Parque Nacional Torres del Paine</t>
+          <t>Refugio de Mochileros - Los Cuernos</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Sociedad Agroindus Mac Lean Ltda.</t>
+          <t>Fantástico Sur Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>13/09/1999</t>
+          <t>18/11/1999</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Ampliación Hostería Las Torres de la Patagonia</t>
+          <t>Servicio de Navegación en Lago Pehoé Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Las Torres de la Patagonia S.A.</t>
+          <t>Sociedad Agroindus Mac Lean Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>490</v>
+        <v>100</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>01/09/1999</t>
+          <t>13/09/1999</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Proyecto Río Serrano</t>
+          <t>Ampliación Hostería Las Torres de la Patagonia</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>GALA INVERSIONES LIMITADA</t>
+          <t>Las Torres de la Patagonia S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>800</v>
+        <v>490</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>30/06/1999</t>
+          <t>01/09/1999</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Construcción de Embarcadero y Habilitación de Lancha en Río Serrano</t>
+          <t>Proyecto Río Serrano</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Cristian Boré Pineda</t>
+          <t>GALA INVERSIONES LIMITADA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>12/02/1999</t>
+          <t>30/06/1999</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Construcción Atracadero de Embarcación</t>
+          <t>Construcción de Embarcadero y Habilitación de Lancha en Río Serrano</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Complejo Turístico Lago Grey Ltda.</t>
+          <t>Cristian Boré Pineda</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>17/09/1998</t>
+          <t>12/02/1999</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Reemplazo de Embarcación Lago Grey</t>
+          <t>Construcción Atracadero de Embarcación</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5775,17 +5775,17 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>16/09/1998</t>
+          <t>17/09/1998</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,43 +5800,91 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
+          <t>Reemplazo de Embarcación Lago Grey</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Complejo Turístico Lago Grey Ltda.</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>50</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>16/09/1998</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Torres del Paine</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
           <t>Proyecto Turístico Monte Balmaceda</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Duodécima</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
         <is>
           <t>Turismo Balmaceda Ltda.</t>
         </is>
       </c>
-      <c r="F114" t="n">
+      <c r="F115" t="n">
         <v>850</v>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>12/01/1998</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=822&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr">
+      <c r="J115" t="inlineStr">
         <is>
           <t>Torres del Paine</t>
         </is>

--- a/data/Torres del Paine.xlsx
+++ b/data/Torres del Paine.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ingeniería Civil Vicente Ltda.</t>
+          <t>Ingeniería Civil Vicente S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25/09/2022</t>
+          <t>26/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157169157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157169111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Regularización empréstito proyecto vial ruta 9</t>
+          <t>Regularización Empréstito San Antonio</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,12 +482,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ingeniería Civil Vicente S.A.</t>
+          <t>Ingeniería Civil Vicente Ltda.</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/09/2022</t>
+          <t>25/09/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157150759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157169157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Extracción de Áridos para Mejoramiento de Ruta 9</t>
+          <t>Regularización empréstito proyecto vial ruta 9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>06/10/2021</t>
+          <t>22/09/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153366471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157150759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Estancia Perales, Fiordo Azul.</t>
+          <t>Extracción de Áridos para Mejoramiento de Ruta 9</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hotelera Fiordo Azul Ltda.</t>
+          <t>Ingeniería Civil Vicente S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>700</v>
+        <v>1191</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12/01/2021</t>
+          <t>06/10/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149417862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153366471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bodega de Acopio de Residuos Reciclables y Valorizables Las Torres de la Patagonia</t>
+          <t>Estancia Perales, Fiordo Azul.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Las Torres de la Patagonia S.A.</t>
+          <t>Hotelera Fiordo Azul Ltda.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>18/01/2019</t>
+          <t>12/01/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142342980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149417862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito Cárdenas y Hernández</t>
+          <t>Bodega de Acopio de Residuos Reciclables y Valorizables Las Torres de la Patagonia</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ingeniería Civil Vicente S.A.</t>
+          <t>Las Torres de la Patagonia S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>29/11/2018</t>
+          <t>18/01/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141954754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142342980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Italiano del Parque Nacional Torres Del Paine.</t>
+          <t>Extracción de Áridos Empréstito Cárdenas y Hernández</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
+          <t>Ingeniería Civil Vicente S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>652</v>
+        <v>850</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13/08/2018</t>
+          <t>29/11/2018</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141157996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141954754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Paso del Parque Nacional Torres Del Paine.</t>
+          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Italiano del Parque Nacional Torres Del Paine.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -779,11 +779,11 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>491</v>
+        <v>652</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09/08/2018</t>
+          <t>13/08/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141158342&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141157996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>16/11/2017</t>
+          <t>09/08/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133482925&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141158342&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Italiano del Parque Nacional Torres del Paine</t>
+          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Paso del Parque Nacional Torres Del Paine.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>652</v>
+        <v>491</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133474911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133482925&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Modificación RCA Ampliación Hotel Salto Chico</t>
+          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Italiano del Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>EXPLORA CHILE S.A.</t>
+          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>359</v>
+        <v>652</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>16/11/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132773483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133474911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Paso del Parque Nacional Torres Del Paine</t>
+          <t>Modificación RCA Ampliación Hotel Salto Chico</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
+          <t>EXPLORA CHILE S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>491</v>
+        <v>359</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>06/10/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132784702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132773483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Italiano del Parque Nacional Torres Del Paine</t>
+          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Paso del Parque Nacional Torres Del Paine</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>652</v>
+        <v>491</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132786902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132784702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Proyecto Servicio de Albergue y Área de Acampar Sectores Central y Serón estancia Cerro Paine</t>
+          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Italiano del Parque Nacional Torres Del Paine</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Fantástico Sur Ltda.</t>
+          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4800</v>
+        <v>652</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08/08/2017</t>
+          <t>06/10/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132600309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132786902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Modificación Refugios Chileno y Los Cuernos estancia Cerro Paine</t>
+          <t>Proyecto Servicio de Albergue y Área de Acampar Sectores Central y Serón estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1115,11 +1115,11 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1200</v>
+        <v>4800</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>04/08/2017</t>
+          <t>08/08/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132600284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132600309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Servicio de Albergue y Área de Acampar Sector Francés estancia Cerro Paine</t>
+          <t>Modificación Refugios Chileno y Los Cuernos estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1163,11 +1163,11 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4600</v>
+        <v>1200</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>03/08/2017</t>
+          <t>04/08/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132600257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132600284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Modificación Lodge y Área de Acampar Lago Grey, Torres del Paine</t>
+          <t>Servicio de Albergue y Área de Acampar Sector Francés estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Vértice S.A.</t>
+          <t>Fantástico Sur Ltda.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>150</v>
+        <v>4600</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>14/07/2017</t>
+          <t>03/08/2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132535023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132600257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Modificación Lodge y Área de Acampar Paine Grande, Torres del Paine</t>
+          <t>Modificación Lodge y Área de Acampar Lago Grey, Torres del Paine</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1259,11 +1259,11 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12/07/2017</t>
+          <t>14/07/2017</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132535195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132535023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Modificación Hotel Las Torres Patagonia</t>
+          <t>Modificación Lodge y Área de Acampar Paine Grande, Torres del Paine</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Las Torres de la Patagonia S.A.</t>
+          <t>Vértice S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4000</v>
+        <v>80</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10/07/2017</t>
+          <t>12/07/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132520884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132535195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Servicio de Albergue y Área de Acampar Sector Francés estancia Cerro Paine</t>
+          <t>Modificación Hotel Las Torres Patagonia</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Fantástico Sur Ltda.</t>
+          <t>Las Torres de la Patagonia S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>07/07/2017</t>
+          <t>10/07/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132523851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132520884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>07/06/2017</t>
+          <t>07/07/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132448738&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132523851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Modificación Refugios Chileno y Los Cuernos estancia Cerro Paine</t>
+          <t>Servicio de Albergue y Área de Acampar Sector Francés estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1451,11 +1451,11 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1200</v>
+        <v>4600</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>06/06/2017</t>
+          <t>07/06/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132358488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132448738&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Proyecto Modificación Refugios Chileno y Los Cuernos estancia Cerro Paine</t>
+          <t>Modificación Refugios Chileno y Los Cuernos estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>11/04/2017</t>
+          <t>06/06/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132310219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132358488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Servicio de Albergue y Área de Acampar Sector Francés estancia Cerro Paine</t>
+          <t>Proyecto Modificación Refugios Chileno y Los Cuernos estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,21 +1547,21 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4600</v>
+        <v>1200</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>03/04/2017</t>
+          <t>11/04/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132275199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132310219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>13/02/2017</t>
+          <t>03/04/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132164725&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132275199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Infraestructura y servicios de apoyo a caminantes en estancia Cerro Paine</t>
+          <t>Servicio de Albergue y Área de Acampar Sector Francés estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1643,21 +1643,21 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>800</v>
+        <v>4600</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>16/12/2016</t>
+          <t>13/02/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131998147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132164725&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Normalización navegación embarcaciones de apoyo en Parque Nacional Torres del Paine</t>
+          <t>Infraestructura y servicios de apoyo a caminantes en estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Vértice S.A.</t>
+          <t>Fantástico Sur Ltda.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>45</v>
+        <v>800</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>14/10/2016</t>
+          <t>16/12/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131811694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131998147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Navegación de Apoyo en el Lago Grey</t>
+          <t>Normalización navegación embarcaciones de apoyo en Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Turismo Lago Grey S.A.</t>
+          <t>Vértice S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>23/09/2016</t>
+          <t>14/10/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131814983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131811694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS LAGUNA AMARGA</t>
+          <t>Navegación de Apoyo en el Lago Grey</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Turismo Lago Grey S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>15/03/2016</t>
+          <t>23/09/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131245434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131814983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Navegación embarcación de apoyo en Lago Nordensjköld</t>
+          <t>EXTRACCIÓN DE ÁRIDOS LAGUNA AMARGA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Fantástico Sur Ltda.</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>28/01/2016</t>
+          <t>15/03/2016</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131033511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131245434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Reutilización de Lodos de Piscicultura</t>
+          <t>Navegación embarcación de apoyo en Lago Nordensjköld</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Fantástico Sur Ltda.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>18/11/2015</t>
+          <t>28/01/2016</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130923324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131033511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Navegación embarcaciones de apoyo a en Lago Nordensjköld</t>
+          <t>Reutilización de Lodos de Piscicultura</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Fantástico Sur Ltda.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>13/08/2015</t>
+          <t>18/11/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130694059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130923324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Reutilización de Lodos de Piscicultura</t>
+          <t>Navegación embarcaciones de apoyo a en Lago Nordensjköld</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Fantástico Sur Ltda.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18/06/2015</t>
+          <t>13/08/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130554144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130694059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte y Reemplazo de Embarcación Navegación Turística Lago Grey</t>
+          <t>Reutilización de Lodos de Piscicultura</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Turismo Lago Grey S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1400</v>
+        <v>90</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18/06/2014</t>
+          <t>18/06/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129551839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130554144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Kayak y Floating en Río Paine</t>
+          <t>Transporte y Reemplazo de Embarcación Navegación Turística Lago Grey</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Inmobiliaria Kusanovic Ltda</t>
+          <t>Turismo Lago Grey S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>201</v>
+        <v>1400</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>18/06/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128718570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129551839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Construcción Puente Laguna Amarga y Puente Torres del Paine</t>
+          <t>Kayak y Floating en Río Paine</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Última Esperanza</t>
+          <t>Inmobiliaria Kusanovic Ltda</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>12500</v>
+        <v>201</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09/12/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128900386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128718570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Cafetería Lago Grey</t>
+          <t>Construcción Puente Laguna Amarga y Puente Torres del Paine</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Hielos Patagónicos S.A.</t>
+          <t>Gobernación Provincial de Última Esperanza</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1200</v>
+        <v>12500</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10/09/2013</t>
+          <t>09/12/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1482397649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128900386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Construcción Guardería y Centro de Información Pehoe, Sector Paine Grande, Parque Nacional Torres del Paine</t>
+          <t>Cafetería Lago Grey</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Hielos Patagónicos S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1391</v>
+        <v>1200</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>05/09/2013</t>
+          <t>10/09/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128535284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1482397649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Proyecto Embarcación de apoyo a actividades turísticas en Lago Grey</t>
+          <t>Construcción Guardería y Centro de Información Pehoe, Sector Paine Grande, Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>BIG FOOT PATAGONIA SPA.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>12</v>
+        <v>1391</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>09/07/2013</t>
+          <t>05/09/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8266016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128535284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Plan de manejo de conservacion estancia cerro paine</t>
+          <t>Proyecto Embarcación de apoyo a actividades turísticas en Lago Grey</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ESTANCIA CERRO PAINE S.A.</t>
+          <t>BIG FOOT PATAGONIA SPA.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4253</v>
+        <v>12</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>10/10/2012</t>
+          <t>09/07/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8266016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Reposición Base para personal sector Pudeto</t>
+          <t>Plan de manejo de conservacion estancia cerro paine</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Agroindus Mac Lean S.A.</t>
+          <t>ESTANCIA CERRO PAINE S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>120</v>
+        <v>4253</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>20/09/2012</t>
+          <t>10/10/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7346089&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>13/09/2012</t>
+          <t>20/09/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7305599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7346089&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Construcción control de acceso en sector Portería Laguna Amarga, Parque Nacional Torres del Paine</t>
+          <t>Reposición Base para personal sector Pudeto</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Agroindus Mac Lean S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1397</v>
+        <v>120</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>13/09/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7305599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CALEFACCIÓN POR BIOMASA, DE TURISMO LAGO GREY S.A.</t>
+          <t>Construcción control de acceso en sector Portería Laguna Amarga, Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TURISMO LAGO GREY S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>350</v>
+        <v>1397</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09/01/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6459680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN REFUGIO LAGO GREY</t>
+          <t>CALEFACCIÓN POR BIOMASA, DE TURISMO LAGO GREY S.A.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Vértice S.A.</t>
+          <t>TURISMO LAGO GREY S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>02/09/2011</t>
+          <t>09/01/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5939189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6459680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Instalación de Puente Mecano sobre el Río Paine, Sector Laguna Amarga, Parque Nacional Torres del Paine</t>
+          <t>AMPLIACIÓN REFUGIO LAGO GREY</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Vértice S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>62</v>
+        <v>250</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>31/05/2011</t>
+          <t>02/09/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5669582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5939189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DE ACCESIBILIDAD EN SECTOR DE MONTAÑA, PARQUE NACIONAL TORRES DEL PAINE</t>
+          <t>Instalación de Puente Mecano sobre el Río Paine, Sector Laguna Amarga, Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>09/05/2011</t>
+          <t>31/05/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5580072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5669582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Instalación de Puente Mecano sobre Río Paine, Sector Laguna Amarga, Parque Nacional Torres del Paine</t>
+          <t>MEJORAMIENTO DE ACCESIBILIDAD EN SECTOR DE MONTAÑA, PARQUE NACIONAL TORRES DEL PAINE</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>04/05/2011</t>
+          <t>09/05/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5549581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5580072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Modificación Planta de Tratamiento de Aguas Residuales Proyecto: Reconstrucción Pabellón Dormitorios y Otros en la Concesión de la Isla Pehoé en el Parque Nacional Torres del Paine</t>
+          <t>Instalación de Puente Mecano sobre Río Paine, Sector Laguna Amarga, Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Hotelera Pehoé Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>22/10/2010</t>
+          <t>04/05/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5013064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5549581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Modificación Planta de Tratamiento de Aguas Residuales Proyecto "Reconstrucción Pabellón Dormitorios y Otros en la Concesión de la Isla Pehoé en el Parque Nacional Torres del Paine"</t>
+          <t>Modificación Planta de Tratamiento de Aguas Residuales Proyecto: Reconstrucción Pabellón Dormitorios y Otros en la Concesión de la Isla Pehoé en el Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>30/09/2010</t>
+          <t>22/10/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4886422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5013064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Nueva Ubicación "Construcción y Operación de Parador Pudeto Sector Pudeto" P.N. Torres del Paine Parador Pudeto</t>
+          <t>Modificación Planta de Tratamiento de Aguas Residuales Proyecto "Reconstrucción Pabellón Dormitorios y Otros en la Concesión de la Isla Pehoé en el Parque Nacional Torres del Paine"</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Agroindus Mac Lean S.A.</t>
+          <t>Hotelera Pehoé Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>03/08/2010</t>
+          <t>30/09/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4807850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4886422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Construcción y Operación del Hotel Tierra Patagonia</t>
+          <t>Nueva Ubicación "Construcción y Operación de Parador Pudeto Sector Pudeto" P.N. Torres del Paine Parador Pudeto</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Asesorias e Inversiones KATARI S.A.</t>
+          <t>Agroindus Mac Lean S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>13000</v>
+        <v>135</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>17/05/2010</t>
+          <t>03/08/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4536582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4807850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Construcción de Parador y Refugio Pudeto Sector Pudeto P.N. Torres del Paine (e-seia)</t>
+          <t>Construcción y Operación del Hotel Tierra Patagonia</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Agroindus Mac Lean S.A.</t>
+          <t>Asesorias e Inversiones KATARI S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>135</v>
+        <v>13000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>13/01/2010</t>
+          <t>17/05/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4316377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4536582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Regularización Ambiental Construcción y Habilitación Segunda Etapa Hotel Cabañas del Paine (e-seia)</t>
+          <t>Construcción de Parador y Refugio Pudeto Sector Pudeto P.N. Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Turismo Cabañas del Paine Limitada</t>
+          <t>Agroindus Mac Lean S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>695</v>
+        <v>135</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>04/01/2010</t>
+          <t>13/01/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4284835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4316377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ampliación Hotel Lago Grey, Modificación y Mejoramiento de Servicios Básicos (e-seia)</t>
+          <t>Regularización Ambiental Construcción y Habilitación Segunda Etapa Hotel Cabañas del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>TURISMO LAGO GREY S.A.</t>
+          <t>Turismo Cabañas del Paine Limitada</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3000</v>
+        <v>695</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>04/01/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4172449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4284835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Habilitación de Nuevos Sitios de Camping Obras de Mantención Camping Serrano (e-seia)</t>
+          <t>Ampliación Hotel Lago Grey, Modificación y Mejoramiento de Servicios Básicos (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Caja de Compensación Los Andes</t>
+          <t>TURISMO LAGO GREY S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>450</v>
+        <v>3000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>30/09/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4078444&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4172449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Habilitación de Nuevos Sitios de Camping Obras de Manteción Camping Serrano (e-seia)</t>
+          <t>Habilitación de Nuevos Sitios de Camping Obras de Mantención Camping Serrano (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3135,17 +3135,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>28/09/2009</t>
+          <t>30/09/2009</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4070919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4078444&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Servicio de Albergue y Área de Acampar Destinados a Caminantes de Zona Primitiva, Sector Lago Grey, Lago Dickson y los Perros, Parque Nacional Torres del Paine (e-seia)</t>
+          <t>Habilitación de Nuevos Sitios de Camping Obras de Manteción Camping Serrano (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Vértice S.A.</t>
+          <t>Caja de Compensación Los Andes</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>16/09/2009</t>
+          <t>28/09/2009</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4052658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4070919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>"Servicio de Albergue y Área de Acampar Destinados a Caminantes de Zona Primitiva, Sector Lago Grey, Lago Dickson y los Perros, Parque Nacional Torres del Paine" (e-seia)</t>
+          <t>Servicio de Albergue y Área de Acampar Destinados a Caminantes de Zona Primitiva, Sector Lago Grey, Lago Dickson y los Perros, Parque Nacional Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>02/09/2009</t>
+          <t>16/09/2009</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3914980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4052658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Disposición Final Efluente Planta de Tratamiento Camping Serrano (e-seia)</t>
+          <t>"Servicio de Albergue y Área de Acampar Destinados a Caminantes de Zona Primitiva, Sector Lago Grey, Lago Dickson y los Perros, Parque Nacional Torres del Paine" (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Caja de Compensación Los Andes</t>
+          <t>Vértice S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>15</v>
+        <v>1200</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>16/12/2008</t>
+          <t>02/09/2009</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3431021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3914980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>09/12/2008</t>
+          <t>16/12/2008</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377921&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3431021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Habilitación de Embarcadero Lago Grey (e-seia)</t>
+          <t>Modificación Sistema de Disposición Final Efluente Planta de Tratamiento Camping Serrano (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Francisco Lopez Mercado</t>
+          <t>Caja de Compensación Los Andes</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>26/03/2008</t>
+          <t>09/12/2008</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2802561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377921&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Natales Torres del Payne Plan Regulador Intercomunal Natales-Torres del Pay (e-seia)</t>
+          <t>Habilitación de Embarcadero Lago Grey (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Francisco Lopez Mercado</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>26/03/2008</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2802561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Mejoramiento y Reconstrucción de Embarcaderos y Pasarelas en Senderos Salto Río Serrano (e-seia)</t>
+          <t>Plan Regulador Intercomunal Natales Torres del Payne Plan Regulador Intercomunal Natales-Torres del Pay (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Punta Alta S.A</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>24/10/2007</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2459237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Mejoramiento y Reconstrucción de Embarcaderos y Pasarelas en Senderos Salto Río Serrano (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Punta Alta S.A</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>24/10/2007</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2459237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Construcción Portería Sector Serrano Parque Nacional Torres del Paine (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>28/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2167969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
+          <t>Construcción Portería Sector Serrano Parque Nacional Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>25/06/2007</t>
+          <t>28/06/2007</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2167969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Reposición Puente Weber, Ruta Y - 156, XII Región (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1670</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>23/04/2007</t>
+          <t>25/06/2007</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2107430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Embarcación y Embarcadero Servicios de Caminatas en Hielo Sector Refugio Grey (e-seia)</t>
+          <t>Reposición Puente Weber, Ruta Y - 156, XII Región (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sergio Echeverria German</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>34</v>
+        <v>1670</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>15/03/2007</t>
+          <t>23/04/2007</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2046569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2107430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Embarcación y Embarcadero Servicios de Caminatas en Hielo Sector Refugio Grey (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,20 +3794,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Sergio Echeverria German</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>15/03/2007</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2046569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3855,17 +3855,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN PORTERÍA SECTOR SERRANO Y BAÑOS DE USO PÚBLICO EN SECTOR PUDETO Y CAMPAMENTO TORRES (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>24/03/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1359298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Radioestaciòn MG115 Torres del Paine (e-seia)</t>
+          <t>CONSTRUCCIÓN PORTERÍA SECTOR SERRANO Y BAÑOS DE USO PÚBLICO EN SECTOR PUDETO Y CAMPAMENTO TORRES (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ENTEL PCS Telecomunicaciones S.A.</t>
+          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>04/11/2005</t>
+          <t>24/03/2006</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1093069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1359298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Disposición Final Efluente - Planta de Tratamiento Hotel Salto Chico (e-seia)</t>
+          <t>Radioestaciòn MG115 Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Explora S.A.</t>
+          <t>ENTEL PCS Telecomunicaciones S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>14/10/2005</t>
+          <t>04/11/2005</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1062084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1093069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Disposición Final Efluente - Planta de Tratamiento Hotel Cabañas del Paine (e-seia)</t>
+          <t>Modificación Sistema de Disposición Final Efluente - Planta de Tratamiento Hotel Salto Chico (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Turismo Cabañas del Paine Limitada</t>
+          <t>Explora S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>07/09/2005</t>
+          <t>14/10/2005</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1009250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1062084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento y Disposición Final Aguas Servidas Hotel Río Serrano Turismo Río Serrano Ltda. Torres del Paine (e-seia)</t>
+          <t>Modificación Sistema de Disposición Final Efluente - Planta de Tratamiento Hotel Cabañas del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sociedad de Turismo Río Serrano y Compañía Limitada</t>
+          <t>Turismo Cabañas del Paine Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>08/08/2005</t>
+          <t>07/09/2005</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=969871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1009250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Plan de Restauración del Patrimonio Natural del Parque Nacional Torres del Paine Afectado por Incendio Forestal 2005 (e-seia)</t>
+          <t>Mejoramiento Sistema de Tratamiento y Disposición Final Aguas Servidas Hotel Río Serrano Turismo Río Serrano Ltda. Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
+          <t>Sociedad de Turismo Río Serrano y Compañía Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>7258</v>
+        <v>50</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>08/06/2005</t>
+          <t>08/08/2005</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=882848&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=969871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Infraestructura de apoyo a Servicio de Cabalgata en el Parque Nacional Torres del Paine (e-seia)</t>
+          <t>Plan de Restauración del Patrimonio Natural del Parque Nacional Torres del Paine Afectado por Incendio Forestal 2005 (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes Baqueano Zamora Ltda.</t>
+          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>200</v>
+        <v>7258</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>27/01/2005</t>
+          <t>08/06/2005</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=521188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=882848&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Camping Río Serrano (e-seia)</t>
+          <t>Infraestructura de apoyo a Servicio de Cabalgata en el Parque Nacional Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Caja de Compensación de Asignación Familiar de los Andes</t>
+          <t>Transportes Baqueano Zamora Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>01/12/2004</t>
+          <t>27/01/2005</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=525486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=521188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Camping Río Serrano (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Caja de Compensación de Asignación Familiar de los Andes</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>01/12/2004</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=525486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Concesión Ampliación Camping Lago Pehoé; Parque Nacional Torres del Paine (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sodexho Chile S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>660</v>
+        <v>200</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>14/04/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=320312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ampliación Refugios y Camping sectores Lago Grey y Ventisquero Los Perros, Parque Nacional Torres del Paine (e-seia)</t>
+          <t>Concesión Ampliación Camping Lago Pehoé; Parque Nacional Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Concesión de Refugios Turísticos Ltda.</t>
+          <t>Sodexho Chile S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>25</v>
+        <v>660</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>10/11/2003</t>
+          <t>14/04/2004</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=194723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=320312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Construcción Puente Grey, Camino Administración de Paine-Glaciar Grey, Provincia de Última Esperanza, XII Región (e-seia)</t>
+          <t>Ampliación Refugios y Camping sectores Lago Grey y Ventisquero Los Perros, Parque Nacional Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Última Esperanza</t>
+          <t>Concesión de Refugios Turísticos Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2540</v>
+        <v>25</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>23/10/2003</t>
+          <t>10/11/2003</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=183363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=194723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Plan Seccional Río Serrano (e-seia)</t>
+          <t>Construcción Puente Grey, Camino Administración de Paine-Glaciar Grey, Provincia de Última Esperanza, XII Región (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Torres del Payne</t>
+          <t>Gobernación Provincial de Última Esperanza</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>2540</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>06/10/2003</t>
+          <t>23/10/2003</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=160791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=183363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Reposición Embarcación en Lago Pehoé, Parque Nacional Torres del Paine - Hotel Salto Chico (e-seia)</t>
+          <t>Plan Seccional Río Serrano (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>explora S.A.</t>
+          <t>Ilustre Municipalidad de Torres del Payne</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>10/09/2003</t>
+          <t>06/10/2003</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=146710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=160791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Hotel Altavista (e-seia)</t>
+          <t>Reposición Embarcación en Lago Pehoé, Parque Nacional Torres del Paine - Hotel Salto Chico (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Complejo Torres del Paine S.A.</t>
+          <t>explora S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>29/08/2003</t>
+          <t>10/09/2003</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=140398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=146710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>Hotel Altavista (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
+          <t>Complejo Torres del Paine S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>29/08/2003</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=140398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Ampliación Hotel Salto Chico (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>explora S.A.</t>
+          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>17/03/2003</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=58991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Construcción Albergue y Área de Acampar para Caminantes de Zona Primitiva Sector Pehoé Parque Nacional Torres del Paine</t>
+          <t>Ampliación Hotel Salto Chico (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Vértice S.A.</t>
+          <t>explora S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>22/01/2003</t>
+          <t>17/03/2003</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=58991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Agua Potable Comuna de Torres del Paine</t>
+          <t>Construcción Albergue y Área de Acampar para Caminantes de Zona Primitiva Sector Pehoé Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Torres del Payne</t>
+          <t>Vértice S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>15/10/2002</t>
+          <t>22/01/2003</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Alcantarillado Comuna de Torres del Paine</t>
+          <t>Mejoramiento del Sistema de Agua Potable Comuna de Torres del Paine</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ampliación Hostería Las Torres de la Patagonia Viviendas para el Personal</t>
+          <t>Mejoramiento del Sistema de Alcantarillado Comuna de Torres del Paine</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Las Torres de la Patagonia S.A.</t>
+          <t>Ilustre Municipalidad de Torres del Payne</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>14/06/2002</t>
+          <t>15/10/2002</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Caballerizas Hotel Explora S.A.</t>
+          <t>Ampliación Hostería Las Torres de la Patagonia Viviendas para el Personal</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Explora S.A.</t>
+          <t>Las Torres de la Patagonia S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>14/05/2002</t>
+          <t>14/06/2002</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Puente Río Serrano</t>
+          <t>Caballerizas Hotel Explora S.A.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Explora S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>07/05/2002</t>
+          <t>14/05/2002</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Construcción y Habilitación Hotel Río Serrano - II Presentación</t>
+          <t>Puente Río Serrano</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Jaksic y Sólo de Saldivar S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>19/02/2002</t>
+          <t>07/05/2002</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Reconstrucción Pabellón Dormitorios y otros en la Concesión de la Isla Pehoé en el Parque Nacional Torres del Paine</t>
+          <t>Construcción y Habilitación Hotel Río Serrano - II Presentación</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>TURISMO ALTO PEHOE LTDA</t>
+          <t>Jaksic y Sólo de Saldivar S.A</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>31/12/2001</t>
+          <t>19/02/2002</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Ampliación Remodelacion y Modificación del Sistema de Alcantarillado de la Hostería del Complejo Turístico Lago Grey</t>
+          <t>Reconstrucción Pabellón Dormitorios y otros en la Concesión de la Isla Pehoé en el Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Complejo Turístico Lago Grey Ltda.</t>
+          <t>TURISMO ALTO PEHOE LTDA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>24/10/2001</t>
+          <t>31/12/2001</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Habilitación y Construcción Hotel Río Serrano</t>
+          <t>Ampliación Remodelacion y Modificación del Sistema de Alcantarillado de la Hostería del Complejo Turístico Lago Grey</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Jaksic y Sólo de Saldivar S.A</t>
+          <t>Complejo Turístico Lago Grey Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>24/09/2001</t>
+          <t>24/10/2001</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ampliación Hostería Las Torres de la Patagonia - Recepción y Centro Interpretativo</t>
+          <t>Habilitación y Construcción Hotel Río Serrano</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Las Torres de la Patagonia S.A.</t>
+          <t>Jaksic y Sólo de Saldivar S.A</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>14/09/2001</t>
+          <t>24/09/2001</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Construcción de Atracadero de Embarcaciones Menores - Complejo Turístico Estancia Perales</t>
+          <t>Ampliación Hostería Las Torres de la Patagonia - Recepción y Centro Interpretativo</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Juana Rodríguez Tevini</t>
+          <t>Las Torres de la Patagonia S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>08/01/2001</t>
+          <t>14/09/2001</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Construcción Hotel Río Serrano</t>
+          <t>Construcción de Atracadero de Embarcaciones Menores - Complejo Turístico Estancia Perales</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sociedad de Turismo Río Serrano y Compañía Limitada</t>
+          <t>Juana Rodríguez Tevini</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>26/07/2000</t>
+          <t>08/01/2001</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Construcción Baños Uso Público - Parque Nacional Torres del Paine</t>
+          <t>Construcción Hotel Río Serrano</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
+          <t>Sociedad de Turismo Río Serrano y Compañía Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>160</v>
+        <v>1500</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>10/07/2000</t>
+          <t>26/07/2000</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Construcción Baños Uso Público - Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,20 +5378,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>10/07/2000</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Refugio de Mochileros - El Coirón</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,20 +5426,20 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Fantástico Sur Ltda.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>18/11/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Refugio de Mochileros - Chileno</t>
+          <t>Refugio de Mochileros - El Coirón</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5483,7 +5483,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Refugio de Mochileros - Los Cuernos</t>
+          <t>Refugio de Mochileros - Chileno</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5531,7 +5531,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Servicio de Navegación en Lago Pehoé Parque Nacional Torres del Paine</t>
+          <t>Refugio de Mochileros - Los Cuernos</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Sociedad Agroindus Mac Lean Ltda.</t>
+          <t>Fantástico Sur Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>13/09/1999</t>
+          <t>18/11/1999</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Ampliación Hostería Las Torres de la Patagonia</t>
+          <t>Servicio de Navegación en Lago Pehoé Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Las Torres de la Patagonia S.A.</t>
+          <t>Sociedad Agroindus Mac Lean Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>490</v>
+        <v>100</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>01/09/1999</t>
+          <t>13/09/1999</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Proyecto Río Serrano</t>
+          <t>Ampliación Hostería Las Torres de la Patagonia</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>GALA INVERSIONES LIMITADA</t>
+          <t>Las Torres de la Patagonia S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>800</v>
+        <v>490</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>30/06/1999</t>
+          <t>01/09/1999</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Construcción de Embarcadero y Habilitación de Lancha en Río Serrano</t>
+          <t>Proyecto Río Serrano</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,15 +5719,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Cristian Boré Pineda</t>
+          <t>GALA INVERSIONES LIMITADA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>12/02/1999</t>
+          <t>30/06/1999</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Construcción Atracadero de Embarcación</t>
+          <t>Construcción de Embarcadero y Habilitación de Lancha en Río Serrano</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Complejo Turístico Lago Grey Ltda.</t>
+          <t>Cristian Boré Pineda</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>17/09/1998</t>
+          <t>12/02/1999</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Reemplazo de Embarcación Lago Grey</t>
+          <t>Construcción Atracadero de Embarcación</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5823,17 +5823,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>16/09/1998</t>
+          <t>17/09/1998</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,43 +5848,91 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
+          <t>Reemplazo de Embarcación Lago Grey</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Complejo Turístico Lago Grey Ltda.</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>50</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>16/09/1998</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Torres del Paine</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
           <t>Proyecto Turístico Monte Balmaceda</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Duodécima</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
         <is>
           <t>Turismo Balmaceda Ltda.</t>
         </is>
       </c>
-      <c r="F115" t="n">
+      <c r="F116" t="n">
         <v>850</v>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>12/01/1998</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=822&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr">
+      <c r="J116" t="inlineStr">
         <is>
           <t>Torres del Paine</t>
         </is>

--- a/data/Torres del Paine.xlsx
+++ b/data/Torres del Paine.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Torres del Paine.xlsx
+++ b/data/Torres del Paine.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Torres del Paine.xlsx
+++ b/data/Torres del Paine.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26/09/2022</t>
+          <t>03/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Torres del Paine.xlsx
+++ b/data/Torres del Paine.xlsx
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sociedad de Turismo Río Serrano y Compañía Limitada</t>
+          <t>Sociedad de Turismo Rio Serrano S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">

--- a/data/Torres del Paine.xlsx
+++ b/data/Torres del Paine.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Regularización Empréstito San Antonio</t>
+          <t>REPOSICIÓN COMPLEJO FRONTERIZO RÍO DON GUILLERMO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ingeniería Civil Vicente S.A.</t>
+          <t>Delegación Presidencial Provincial de Última Esperanza</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1191</v>
+        <v>17093</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/10/2022</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157169111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160941341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ingeniería Civil Vicente Ltda.</t>
+          <t>Ingeniería Civil Vicente S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>25/09/2022</t>
+          <t>03/10/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157169157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157169111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Regularización empréstito proyecto vial ruta 9</t>
+          <t>Regularización Empréstito San Antonio</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,12 +530,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ingeniería Civil Vicente S.A.</t>
+          <t>Ingeniería Civil Vicente Ltda.</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -543,7 +543,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/09/2022</t>
+          <t>25/09/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157150759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157169157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Extracción de Áridos para Mejoramiento de Ruta 9</t>
+          <t>Regularización empréstito proyecto vial ruta 9</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>06/10/2021</t>
+          <t>22/09/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153366471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157150759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Estancia Perales, Fiordo Azul.</t>
+          <t>Extracción de Áridos para Mejoramiento de Ruta 9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hotelera Fiordo Azul Ltda.</t>
+          <t>Ingeniería Civil Vicente S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>700</v>
+        <v>1191</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>12/01/2021</t>
+          <t>06/10/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149417862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153366471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bodega de Acopio de Residuos Reciclables y Valorizables Las Torres de la Patagonia</t>
+          <t>Estancia Perales, Fiordo Azul.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Las Torres de la Patagonia S.A.</t>
+          <t>Hotelera Fiordo Azul Ltda.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>18/01/2019</t>
+          <t>12/01/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142342980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149417862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito Cárdenas y Hernández</t>
+          <t>Bodega de Acopio de Residuos Reciclables y Valorizables Las Torres de la Patagonia</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ingeniería Civil Vicente S.A.</t>
+          <t>Las Torres de la Patagonia S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>29/11/2018</t>
+          <t>18/01/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141954754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142342980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Italiano del Parque Nacional Torres Del Paine.</t>
+          <t>Extracción de Áridos Empréstito Cárdenas y Hernández</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
+          <t>Ingeniería Civil Vicente S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>652</v>
+        <v>850</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>13/08/2018</t>
+          <t>29/11/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141157996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141954754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Paso del Parque Nacional Torres Del Paine.</t>
+          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Italiano del Parque Nacional Torres Del Paine.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -827,11 +827,11 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>491</v>
+        <v>652</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09/08/2018</t>
+          <t>13/08/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141158342&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141157996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>16/11/2017</t>
+          <t>09/08/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133482925&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141158342&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Italiano del Parque Nacional Torres del Paine</t>
+          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Paso del Parque Nacional Torres Del Paine.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>652</v>
+        <v>491</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133474911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133482925&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Modificación RCA Ampliación Hotel Salto Chico</t>
+          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Italiano del Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>EXPLORA CHILE S.A.</t>
+          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>359</v>
+        <v>652</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>16/11/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132773483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133474911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Paso del Parque Nacional Torres Del Paine</t>
+          <t>Modificación RCA Ampliación Hotel Salto Chico</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
+          <t>EXPLORA CHILE S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>491</v>
+        <v>359</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>06/10/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132784702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132773483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Italiano del Parque Nacional Torres Del Paine</t>
+          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Paso del Parque Nacional Torres Del Paine</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1067,7 +1067,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>652</v>
+        <v>491</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132786902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132784702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Proyecto Servicio de Albergue y Área de Acampar Sectores Central y Serón estancia Cerro Paine</t>
+          <t>Mejoramiento de Infraestructuras de Uso Público y de Protección en Sector Italiano del Parque Nacional Torres Del Paine</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Fantástico Sur Ltda.</t>
+          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4800</v>
+        <v>652</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08/08/2017</t>
+          <t>06/10/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132600309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132786902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modificación Refugios Chileno y Los Cuernos estancia Cerro Paine</t>
+          <t>Proyecto Servicio de Albergue y Área de Acampar Sectores Central y Serón estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1163,11 +1163,11 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1200</v>
+        <v>4800</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>04/08/2017</t>
+          <t>08/08/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132600284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132600309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Servicio de Albergue y Área de Acampar Sector Francés estancia Cerro Paine</t>
+          <t>Modificación Refugios Chileno y Los Cuernos estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1211,11 +1211,11 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4600</v>
+        <v>1200</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>03/08/2017</t>
+          <t>04/08/2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132600257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132600284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Modificación Lodge y Área de Acampar Lago Grey, Torres del Paine</t>
+          <t>Servicio de Albergue y Área de Acampar Sector Francés estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Vértice S.A.</t>
+          <t>Fantástico Sur Ltda.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>150</v>
+        <v>4600</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>14/07/2017</t>
+          <t>03/08/2017</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132535023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132600257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Modificación Lodge y Área de Acampar Paine Grande, Torres del Paine</t>
+          <t>Modificación Lodge y Área de Acampar Lago Grey, Torres del Paine</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12/07/2017</t>
+          <t>14/07/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132535195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132535023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Modificación Hotel Las Torres Patagonia</t>
+          <t>Modificación Lodge y Área de Acampar Paine Grande, Torres del Paine</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Las Torres de la Patagonia S.A.</t>
+          <t>Vértice S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4000</v>
+        <v>80</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10/07/2017</t>
+          <t>12/07/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132520884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132535195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Servicio de Albergue y Área de Acampar Sector Francés estancia Cerro Paine</t>
+          <t>Modificación Hotel Las Torres Patagonia</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Fantástico Sur Ltda.</t>
+          <t>Las Torres de la Patagonia S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>07/07/2017</t>
+          <t>10/07/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132523851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132520884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>07/06/2017</t>
+          <t>07/07/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132448738&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132523851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Modificación Refugios Chileno y Los Cuernos estancia Cerro Paine</t>
+          <t>Servicio de Albergue y Área de Acampar Sector Francés estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1499,11 +1499,11 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1200</v>
+        <v>4600</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>06/06/2017</t>
+          <t>07/06/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132358488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132448738&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Proyecto Modificación Refugios Chileno y Los Cuernos estancia Cerro Paine</t>
+          <t>Modificación Refugios Chileno y Los Cuernos estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11/04/2017</t>
+          <t>06/06/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132310219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132358488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Servicio de Albergue y Área de Acampar Sector Francés estancia Cerro Paine</t>
+          <t>Proyecto Modificación Refugios Chileno y Los Cuernos estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1595,21 +1595,21 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4600</v>
+        <v>1200</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>03/04/2017</t>
+          <t>11/04/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132275199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132310219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>13/02/2017</t>
+          <t>03/04/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132164725&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132275199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Infraestructura y servicios de apoyo a caminantes en estancia Cerro Paine</t>
+          <t>Servicio de Albergue y Área de Acampar Sector Francés estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1691,21 +1691,21 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>800</v>
+        <v>4600</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>16/12/2016</t>
+          <t>13/02/2017</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131998147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132164725&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Normalización navegación embarcaciones de apoyo en Parque Nacional Torres del Paine</t>
+          <t>Infraestructura y servicios de apoyo a caminantes en estancia Cerro Paine</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Vértice S.A.</t>
+          <t>Fantástico Sur Ltda.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>45</v>
+        <v>800</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>14/10/2016</t>
+          <t>16/12/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131811694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131998147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Navegación de Apoyo en el Lago Grey</t>
+          <t>Normalización navegación embarcaciones de apoyo en Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Turismo Lago Grey S.A.</t>
+          <t>Vértice S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>23/09/2016</t>
+          <t>14/10/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131814983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131811694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS LAGUNA AMARGA</t>
+          <t>Navegación de Apoyo en el Lago Grey</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Turismo Lago Grey S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>15/03/2016</t>
+          <t>23/09/2016</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131245434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131814983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Navegación embarcación de apoyo en Lago Nordensjköld</t>
+          <t>EXTRACCIÓN DE ÁRIDOS LAGUNA AMARGA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Fantástico Sur Ltda.</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>28/01/2016</t>
+          <t>15/03/2016</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131033511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131245434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Reutilización de Lodos de Piscicultura</t>
+          <t>Navegación embarcación de apoyo en Lago Nordensjköld</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Fantástico Sur Ltda.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18/11/2015</t>
+          <t>28/01/2016</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130923324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131033511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Navegación embarcaciones de apoyo a en Lago Nordensjköld</t>
+          <t>Reutilización de Lodos de Piscicultura</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Fantástico Sur Ltda.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>13/08/2015</t>
+          <t>18/11/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130694059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130923324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Reutilización de Lodos de Piscicultura</t>
+          <t>Navegación embarcaciones de apoyo a en Lago Nordensjköld</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Fantástico Sur Ltda.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18/06/2015</t>
+          <t>13/08/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130554144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130694059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte y Reemplazo de Embarcación Navegación Turística Lago Grey</t>
+          <t>Reutilización de Lodos de Piscicultura</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Turismo Lago Grey S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1400</v>
+        <v>90</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>18/06/2014</t>
+          <t>18/06/2015</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129551839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130554144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Kayak y Floating en Río Paine</t>
+          <t>Transporte y Reemplazo de Embarcación Navegación Turística Lago Grey</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Inmobiliaria Kusanovic Ltda</t>
+          <t>Turismo Lago Grey S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>201</v>
+        <v>1400</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>18/06/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128718570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129551839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Construcción Puente Laguna Amarga y Puente Torres del Paine</t>
+          <t>Kayak y Floating en Río Paine</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Última Esperanza</t>
+          <t>Inmobiliaria Kusanovic Ltda</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>12500</v>
+        <v>201</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09/12/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128900386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128718570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cafetería Lago Grey</t>
+          <t>Construcción Puente Laguna Amarga y Puente Torres del Paine</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Hielos Patagónicos S.A.</t>
+          <t>Gobernación Provincial de Última Esperanza</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1200</v>
+        <v>12500</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10/09/2013</t>
+          <t>09/12/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1482397649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128900386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Construcción Guardería y Centro de Información Pehoe, Sector Paine Grande, Parque Nacional Torres del Paine</t>
+          <t>Cafetería Lago Grey</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Hielos Patagónicos S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1391</v>
+        <v>1200</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>05/09/2013</t>
+          <t>10/09/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128535284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1482397649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Proyecto Embarcación de apoyo a actividades turísticas en Lago Grey</t>
+          <t>Construcción Guardería y Centro de Información Pehoe, Sector Paine Grande, Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>BIG FOOT PATAGONIA SPA.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>12</v>
+        <v>1391</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09/07/2013</t>
+          <t>05/09/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8266016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128535284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Plan de manejo de conservacion estancia cerro paine</t>
+          <t>Proyecto Embarcación de apoyo a actividades turísticas en Lago Grey</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ESTANCIA CERRO PAINE S.A.</t>
+          <t>BIG FOOT PATAGONIA SPA.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4253</v>
+        <v>12</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>10/10/2012</t>
+          <t>09/07/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8266016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Reposición Base para personal sector Pudeto</t>
+          <t>Plan de manejo de conservacion estancia cerro paine</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Agroindus Mac Lean S.A.</t>
+          <t>ESTANCIA CERRO PAINE S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>120</v>
+        <v>4253</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>20/09/2012</t>
+          <t>10/10/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7346089&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>13/09/2012</t>
+          <t>20/09/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7305599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7346089&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Construcción control de acceso en sector Portería Laguna Amarga, Parque Nacional Torres del Paine</t>
+          <t>Reposición Base para personal sector Pudeto</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Agroindus Mac Lean S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1397</v>
+        <v>120</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>13/09/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7305599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CALEFACCIÓN POR BIOMASA, DE TURISMO LAGO GREY S.A.</t>
+          <t>Construcción control de acceso en sector Portería Laguna Amarga, Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TURISMO LAGO GREY S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>350</v>
+        <v>1397</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09/01/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6459680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN REFUGIO LAGO GREY</t>
+          <t>CALEFACCIÓN POR BIOMASA, DE TURISMO LAGO GREY S.A.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Vértice S.A.</t>
+          <t>TURISMO LAGO GREY S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>02/09/2011</t>
+          <t>09/01/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5939189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6459680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Instalación de Puente Mecano sobre el Río Paine, Sector Laguna Amarga, Parque Nacional Torres del Paine</t>
+          <t>AMPLIACIÓN REFUGIO LAGO GREY</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Vértice S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>62</v>
+        <v>250</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>31/05/2011</t>
+          <t>02/09/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5669582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5939189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DE ACCESIBILIDAD EN SECTOR DE MONTAÑA, PARQUE NACIONAL TORRES DEL PAINE</t>
+          <t>Instalación de Puente Mecano sobre el Río Paine, Sector Laguna Amarga, Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>09/05/2011</t>
+          <t>31/05/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5580072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5669582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Instalación de Puente Mecano sobre Río Paine, Sector Laguna Amarga, Parque Nacional Torres del Paine</t>
+          <t>MEJORAMIENTO DE ACCESIBILIDAD EN SECTOR DE MONTAÑA, PARQUE NACIONAL TORRES DEL PAINE</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>04/05/2011</t>
+          <t>09/05/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5549581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5580072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Modificación Planta de Tratamiento de Aguas Residuales Proyecto: Reconstrucción Pabellón Dormitorios y Otros en la Concesión de la Isla Pehoé en el Parque Nacional Torres del Paine</t>
+          <t>Instalación de Puente Mecano sobre Río Paine, Sector Laguna Amarga, Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Hotelera Pehoé Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>22/10/2010</t>
+          <t>04/05/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5013064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5549581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Modificación Planta de Tratamiento de Aguas Residuales Proyecto "Reconstrucción Pabellón Dormitorios y Otros en la Concesión de la Isla Pehoé en el Parque Nacional Torres del Paine"</t>
+          <t>Modificación Planta de Tratamiento de Aguas Residuales Proyecto: Reconstrucción Pabellón Dormitorios y Otros en la Concesión de la Isla Pehoé en el Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>30/09/2010</t>
+          <t>22/10/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4886422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5013064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Nueva Ubicación "Construcción y Operación de Parador Pudeto Sector Pudeto" P.N. Torres del Paine Parador Pudeto</t>
+          <t>Modificación Planta de Tratamiento de Aguas Residuales Proyecto "Reconstrucción Pabellón Dormitorios y Otros en la Concesión de la Isla Pehoé en el Parque Nacional Torres del Paine"</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Agroindus Mac Lean S.A.</t>
+          <t>Hotelera Pehoé Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>03/08/2010</t>
+          <t>30/09/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4807850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4886422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Construcción y Operación del Hotel Tierra Patagonia</t>
+          <t>Nueva Ubicación "Construcción y Operación de Parador Pudeto Sector Pudeto" P.N. Torres del Paine Parador Pudeto</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Asesorias e Inversiones KATARI S.A.</t>
+          <t>Agroindus Mac Lean S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>13000</v>
+        <v>135</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>17/05/2010</t>
+          <t>03/08/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4536582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4807850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Construcción de Parador y Refugio Pudeto Sector Pudeto P.N. Torres del Paine (e-seia)</t>
+          <t>Construcción y Operación del Hotel Tierra Patagonia</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Agroindus Mac Lean S.A.</t>
+          <t>Asesorias e Inversiones KATARI S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>135</v>
+        <v>13000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>13/01/2010</t>
+          <t>17/05/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4316377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4536582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Regularización Ambiental Construcción y Habilitación Segunda Etapa Hotel Cabañas del Paine (e-seia)</t>
+          <t>Construcción de Parador y Refugio Pudeto Sector Pudeto P.N. Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Turismo Cabañas del Paine Limitada</t>
+          <t>Agroindus Mac Lean S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>695</v>
+        <v>135</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>04/01/2010</t>
+          <t>13/01/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4284835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4316377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ampliación Hotel Lago Grey, Modificación y Mejoramiento de Servicios Básicos (e-seia)</t>
+          <t>Regularización Ambiental Construcción y Habilitación Segunda Etapa Hotel Cabañas del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TURISMO LAGO GREY S.A.</t>
+          <t>Turismo Cabañas del Paine Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3000</v>
+        <v>695</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>04/01/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4172449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4284835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Habilitación de Nuevos Sitios de Camping Obras de Mantención Camping Serrano (e-seia)</t>
+          <t>Ampliación Hotel Lago Grey, Modificación y Mejoramiento de Servicios Básicos (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Caja de Compensación Los Andes</t>
+          <t>TURISMO LAGO GREY S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>450</v>
+        <v>3000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>30/09/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4078444&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4172449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Habilitación de Nuevos Sitios de Camping Obras de Manteción Camping Serrano (e-seia)</t>
+          <t>Habilitación de Nuevos Sitios de Camping Obras de Mantención Camping Serrano (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3183,17 +3183,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>28/09/2009</t>
+          <t>30/09/2009</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4070919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4078444&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Servicio de Albergue y Área de Acampar Destinados a Caminantes de Zona Primitiva, Sector Lago Grey, Lago Dickson y los Perros, Parque Nacional Torres del Paine (e-seia)</t>
+          <t>Habilitación de Nuevos Sitios de Camping Obras de Manteción Camping Serrano (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Vértice S.A.</t>
+          <t>Caja de Compensación Los Andes</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>16/09/2009</t>
+          <t>28/09/2009</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4052658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4070919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>"Servicio de Albergue y Área de Acampar Destinados a Caminantes de Zona Primitiva, Sector Lago Grey, Lago Dickson y los Perros, Parque Nacional Torres del Paine" (e-seia)</t>
+          <t>Servicio de Albergue y Área de Acampar Destinados a Caminantes de Zona Primitiva, Sector Lago Grey, Lago Dickson y los Perros, Parque Nacional Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>02/09/2009</t>
+          <t>16/09/2009</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3914980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4052658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Disposición Final Efluente Planta de Tratamiento Camping Serrano (e-seia)</t>
+          <t>"Servicio de Albergue y Área de Acampar Destinados a Caminantes de Zona Primitiva, Sector Lago Grey, Lago Dickson y los Perros, Parque Nacional Torres del Paine" (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Caja de Compensación Los Andes</t>
+          <t>Vértice S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>15</v>
+        <v>1200</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>16/12/2008</t>
+          <t>02/09/2009</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3431021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3914980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3375,17 +3375,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>09/12/2008</t>
+          <t>16/12/2008</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377921&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3431021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Habilitación de Embarcadero Lago Grey (e-seia)</t>
+          <t>Modificación Sistema de Disposición Final Efluente Planta de Tratamiento Camping Serrano (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Francisco Lopez Mercado</t>
+          <t>Caja de Compensación Los Andes</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>26/03/2008</t>
+          <t>09/12/2008</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2802561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377921&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Natales Torres del Payne Plan Regulador Intercomunal Natales-Torres del Pay (e-seia)</t>
+          <t>Habilitación de Embarcadero Lago Grey (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Francisco Lopez Mercado</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>26/03/2008</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2802561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Mejoramiento y Reconstrucción de Embarcaderos y Pasarelas en Senderos Salto Río Serrano (e-seia)</t>
+          <t>Plan Regulador Intercomunal Natales Torres del Payne Plan Regulador Intercomunal Natales-Torres del Pay (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Punta Alta S.A</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>24/10/2007</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2459237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Mejoramiento y Reconstrucción de Embarcaderos y Pasarelas en Senderos Salto Río Serrano (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Punta Alta S.A</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>24/10/2007</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2459237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Construcción Portería Sector Serrano Parque Nacional Torres del Paine (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>28/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2167969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
+          <t>Construcción Portería Sector Serrano Parque Nacional Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>25/06/2007</t>
+          <t>28/06/2007</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2167969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Reposición Puente Weber, Ruta Y - 156, XII Región (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1670</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>23/04/2007</t>
+          <t>25/06/2007</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2107430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Embarcación y Embarcadero Servicios de Caminatas en Hielo Sector Refugio Grey (e-seia)</t>
+          <t>Reposición Puente Weber, Ruta Y - 156, XII Región (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sergio Echeverria German</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>34</v>
+        <v>1670</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>15/03/2007</t>
+          <t>23/04/2007</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2046569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2107430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Embarcación y Embarcadero Servicios de Caminatas en Hielo Sector Refugio Grey (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,20 +3842,20 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Sergio Echeverria German</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>15/03/2007</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2046569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN PORTERÍA SECTOR SERRANO Y BAÑOS DE USO PÚBLICO EN SECTOR PUDETO Y CAMPAMENTO TORRES (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>24/03/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1359298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Radioestaciòn MG115 Torres del Paine (e-seia)</t>
+          <t>CONSTRUCCIÓN PORTERÍA SECTOR SERRANO Y BAÑOS DE USO PÚBLICO EN SECTOR PUDETO Y CAMPAMENTO TORRES (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ENTEL PCS Telecomunicaciones S.A.</t>
+          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>04/11/2005</t>
+          <t>24/03/2006</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1093069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1359298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Disposición Final Efluente - Planta de Tratamiento Hotel Salto Chico (e-seia)</t>
+          <t>Radioestaciòn MG115 Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Explora S.A.</t>
+          <t>ENTEL PCS Telecomunicaciones S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>14/10/2005</t>
+          <t>04/11/2005</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1062084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1093069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Disposición Final Efluente - Planta de Tratamiento Hotel Cabañas del Paine (e-seia)</t>
+          <t>Modificación Sistema de Disposición Final Efluente - Planta de Tratamiento Hotel Salto Chico (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Turismo Cabañas del Paine Limitada</t>
+          <t>Explora S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>07/09/2005</t>
+          <t>14/10/2005</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1009250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1062084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Tratamiento y Disposición Final Aguas Servidas Hotel Río Serrano Turismo Río Serrano Ltda. Torres del Paine (e-seia)</t>
+          <t>Modificación Sistema de Disposición Final Efluente - Planta de Tratamiento Hotel Cabañas del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sociedad de Turismo Rio Serrano S.A.</t>
+          <t>Turismo Cabañas del Paine Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>08/08/2005</t>
+          <t>07/09/2005</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=969871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1009250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Plan de Restauración del Patrimonio Natural del Parque Nacional Torres del Paine Afectado por Incendio Forestal 2005 (e-seia)</t>
+          <t>Mejoramiento Sistema de Tratamiento y Disposición Final Aguas Servidas Hotel Río Serrano Turismo Río Serrano Ltda. Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
+          <t>Sociedad de Turismo Rio Serrano S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>7258</v>
+        <v>50</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>08/06/2005</t>
+          <t>08/08/2005</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=882848&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=969871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Infraestructura de apoyo a Servicio de Cabalgata en el Parque Nacional Torres del Paine (e-seia)</t>
+          <t>Plan de Restauración del Patrimonio Natural del Parque Nacional Torres del Paine Afectado por Incendio Forestal 2005 (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transportes Baqueano Zamora Ltda.</t>
+          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>200</v>
+        <v>7258</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>27/01/2005</t>
+          <t>08/06/2005</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=521188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=882848&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Camping Río Serrano (e-seia)</t>
+          <t>Infraestructura de apoyo a Servicio de Cabalgata en el Parque Nacional Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Caja de Compensación de Asignación Familiar de los Andes</t>
+          <t>Transportes Baqueano Zamora Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>01/12/2004</t>
+          <t>27/01/2005</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=525486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=521188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Camping Río Serrano (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Caja de Compensación de Asignación Familiar de los Andes</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>01/12/2004</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=525486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Concesión Ampliación Camping Lago Pehoé; Parque Nacional Torres del Paine (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sodexho Chile S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>660</v>
+        <v>200</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>14/04/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=320312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Ampliación Refugios y Camping sectores Lago Grey y Ventisquero Los Perros, Parque Nacional Torres del Paine (e-seia)</t>
+          <t>Concesión Ampliación Camping Lago Pehoé; Parque Nacional Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Concesión de Refugios Turísticos Ltda.</t>
+          <t>Sodexho Chile S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>25</v>
+        <v>660</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>10/11/2003</t>
+          <t>14/04/2004</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=194723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=320312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Construcción Puente Grey, Camino Administración de Paine-Glaciar Grey, Provincia de Última Esperanza, XII Región (e-seia)</t>
+          <t>Ampliación Refugios y Camping sectores Lago Grey y Ventisquero Los Perros, Parque Nacional Torres del Paine (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Última Esperanza</t>
+          <t>Concesión de Refugios Turísticos Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2540</v>
+        <v>25</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>23/10/2003</t>
+          <t>10/11/2003</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=183363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=194723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Plan Seccional Río Serrano (e-seia)</t>
+          <t>Construcción Puente Grey, Camino Administración de Paine-Glaciar Grey, Provincia de Última Esperanza, XII Región (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Torres del Payne</t>
+          <t>Gobernación Provincial de Última Esperanza</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>2540</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>06/10/2003</t>
+          <t>23/10/2003</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=160791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=183363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Reposición Embarcación en Lago Pehoé, Parque Nacional Torres del Paine - Hotel Salto Chico (e-seia)</t>
+          <t>Plan Seccional Río Serrano (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>explora S.A.</t>
+          <t>Ilustre Municipalidad de Torres del Payne</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>10/09/2003</t>
+          <t>06/10/2003</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=146710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=160791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Hotel Altavista (e-seia)</t>
+          <t>Reposición Embarcación en Lago Pehoé, Parque Nacional Torres del Paine - Hotel Salto Chico (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Complejo Torres del Paine S.A.</t>
+          <t>explora S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>29/08/2003</t>
+          <t>10/09/2003</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=140398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=146710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>Hotel Altavista (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
+          <t>Complejo Torres del Paine S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>29/08/2003</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=140398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ampliación Hotel Salto Chico (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>explora S.A.</t>
+          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>17/03/2003</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=58991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Construcción Albergue y Área de Acampar para Caminantes de Zona Primitiva Sector Pehoé Parque Nacional Torres del Paine</t>
+          <t>Ampliación Hotel Salto Chico (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Vértice S.A.</t>
+          <t>explora S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>22/01/2003</t>
+          <t>17/03/2003</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=58991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Agua Potable Comuna de Torres del Paine</t>
+          <t>Construcción Albergue y Área de Acampar para Caminantes de Zona Primitiva Sector Pehoé Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Torres del Payne</t>
+          <t>Vértice S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>15/10/2002</t>
+          <t>22/01/2003</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Alcantarillado Comuna de Torres del Paine</t>
+          <t>Mejoramiento del Sistema de Agua Potable Comuna de Torres del Paine</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Ampliación Hostería Las Torres de la Patagonia Viviendas para el Personal</t>
+          <t>Mejoramiento del Sistema de Alcantarillado Comuna de Torres del Paine</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Las Torres de la Patagonia S.A.</t>
+          <t>Ilustre Municipalidad de Torres del Payne</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>14/06/2002</t>
+          <t>15/10/2002</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Caballerizas Hotel Explora S.A.</t>
+          <t>Ampliación Hostería Las Torres de la Patagonia Viviendas para el Personal</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Explora S.A.</t>
+          <t>Las Torres de la Patagonia S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>14/05/2002</t>
+          <t>14/06/2002</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Puente Río Serrano</t>
+          <t>Caballerizas Hotel Explora S.A.</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Explora S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>07/05/2002</t>
+          <t>14/05/2002</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Construcción y Habilitación Hotel Río Serrano - II Presentación</t>
+          <t>Puente Río Serrano</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Jaksic y Sólo de Saldivar S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>19/02/2002</t>
+          <t>07/05/2002</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Reconstrucción Pabellón Dormitorios y otros en la Concesión de la Isla Pehoé en el Parque Nacional Torres del Paine</t>
+          <t>Construcción y Habilitación Hotel Río Serrano - II Presentación</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>TURISMO ALTO PEHOE LTDA</t>
+          <t>Jaksic y Sólo de Saldivar S.A</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>31/12/2001</t>
+          <t>19/02/2002</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ampliación Remodelacion y Modificación del Sistema de Alcantarillado de la Hostería del Complejo Turístico Lago Grey</t>
+          <t>Reconstrucción Pabellón Dormitorios y otros en la Concesión de la Isla Pehoé en el Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Complejo Turístico Lago Grey Ltda.</t>
+          <t>TURISMO ALTO PEHOE LTDA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>24/10/2001</t>
+          <t>31/12/2001</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Habilitación y Construcción Hotel Río Serrano</t>
+          <t>Ampliación Remodelacion y Modificación del Sistema de Alcantarillado de la Hostería del Complejo Turístico Lago Grey</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Jaksic y Sólo de Saldivar S.A</t>
+          <t>Complejo Turístico Lago Grey Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>24/09/2001</t>
+          <t>24/10/2001</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ampliación Hostería Las Torres de la Patagonia - Recepción y Centro Interpretativo</t>
+          <t>Habilitación y Construcción Hotel Río Serrano</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Las Torres de la Patagonia S.A.</t>
+          <t>Jaksic y Sólo de Saldivar S.A</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>14/09/2001</t>
+          <t>24/09/2001</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Construcción de Atracadero de Embarcaciones Menores - Complejo Turístico Estancia Perales</t>
+          <t>Ampliación Hostería Las Torres de la Patagonia - Recepción y Centro Interpretativo</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Juana Rodríguez Tevini</t>
+          <t>Las Torres de la Patagonia S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>08/01/2001</t>
+          <t>14/09/2001</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Construcción Hotel Río Serrano</t>
+          <t>Construcción de Atracadero de Embarcaciones Menores - Complejo Turístico Estancia Perales</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Sociedad de Turismo Río Serrano y Compañía Limitada</t>
+          <t>Juana Rodríguez Tevini</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>26/07/2000</t>
+          <t>08/01/2001</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Construcción Baños Uso Público - Parque Nacional Torres del Paine</t>
+          <t>Construcción Hotel Río Serrano</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
+          <t>Sociedad de Turismo Río Serrano y Compañía Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>160</v>
+        <v>1500</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>10/07/2000</t>
+          <t>26/07/2000</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Construcción Baños Uso Público - Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,20 +5426,20 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>10/07/2000</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Refugio de Mochileros - El Coirón</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,20 +5474,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Fantástico Sur Ltda.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>18/11/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Refugio de Mochileros - Chileno</t>
+          <t>Refugio de Mochileros - El Coirón</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5531,7 +5531,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Refugio de Mochileros - Los Cuernos</t>
+          <t>Refugio de Mochileros - Chileno</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5579,7 +5579,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Servicio de Navegación en Lago Pehoé Parque Nacional Torres del Paine</t>
+          <t>Refugio de Mochileros - Los Cuernos</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Sociedad Agroindus Mac Lean Ltda.</t>
+          <t>Fantástico Sur Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>13/09/1999</t>
+          <t>18/11/1999</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Ampliación Hostería Las Torres de la Patagonia</t>
+          <t>Servicio de Navegación en Lago Pehoé Parque Nacional Torres del Paine</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Las Torres de la Patagonia S.A.</t>
+          <t>Sociedad Agroindus Mac Lean Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>490</v>
+        <v>100</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>01/09/1999</t>
+          <t>13/09/1999</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Proyecto Río Serrano</t>
+          <t>Ampliación Hostería Las Torres de la Patagonia</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,15 +5719,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>GALA INVERSIONES LIMITADA</t>
+          <t>Las Torres de la Patagonia S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>800</v>
+        <v>490</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>30/06/1999</t>
+          <t>01/09/1999</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Construcción de Embarcadero y Habilitación de Lancha en Río Serrano</t>
+          <t>Proyecto Río Serrano</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Cristian Boré Pineda</t>
+          <t>GALA INVERSIONES LIMITADA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>12/02/1999</t>
+          <t>30/06/1999</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Construcción Atracadero de Embarcación</t>
+          <t>Construcción de Embarcadero y Habilitación de Lancha en Río Serrano</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Complejo Turístico Lago Grey Ltda.</t>
+          <t>Cristian Boré Pineda</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>17/09/1998</t>
+          <t>12/02/1999</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Reemplazo de Embarcación Lago Grey</t>
+          <t>Construcción Atracadero de Embarcación</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5871,17 +5871,17 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>16/09/1998</t>
+          <t>17/09/1998</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,43 +5896,91 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
+          <t>Reemplazo de Embarcación Lago Grey</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Complejo Turístico Lago Grey Ltda.</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>50</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>16/09/1998</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1332&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Torres del Paine</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
           <t>Proyecto Turístico Monte Balmaceda</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Duodécima</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
         <is>
           <t>Turismo Balmaceda Ltda.</t>
         </is>
       </c>
-      <c r="F116" t="n">
+      <c r="F117" t="n">
         <v>850</v>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>12/01/1998</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=822&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr">
+      <c r="J117" t="inlineStr">
         <is>
           <t>Torres del Paine</t>
         </is>
